--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-detail.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-detail.xlsx
@@ -360,51 +360,54 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>367.0</t>
+  </si>
+  <si>
+    <t>384.0</t>
+  </si>
+  <si>
+    <t>406.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>405.0</t>
+  </si>
+  <si>
+    <t>422.0</t>
+  </si>
+  <si>
+    <t>437.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>448.0</t>
-  </si>
-  <si>
-    <t>472.0</t>
-  </si>
-  <si>
-    <t>491.0</t>
-  </si>
-  <si>
-    <t>518.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>405.0</t>
-  </si>
-  <si>
-    <t>422.0</t>
-  </si>
-  <si>
-    <t>437.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
     <t>13.0</t>
   </si>
   <si>
@@ -426,9 +429,6 @@
     <t>5.0</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
     <t>938.0</t>
   </si>
   <si>
@@ -543,19 +543,19 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>957.0</t>
-  </si>
-  <si>
-    <t>989.0</t>
-  </si>
-  <si>
-    <t>1020.0</t>
-  </si>
-  <si>
-    <t>1075.0</t>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>1055.0</t>
+  </si>
+  <si>
+    <t>1094.0</t>
+  </si>
+  <si>
+    <t>1127.0</t>
+  </si>
+  <si>
+    <t>1187.0</t>
   </si>
   <si>
     <t>93</t>
@@ -1415,16 +1415,16 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -1441,16 +1441,16 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -1467,10 +1467,10 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1493,10 +1493,10 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -1519,10 +1519,10 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -1545,10 +1545,10 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -1571,10 +1571,10 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1597,10 +1597,10 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
@@ -1918,7 +1918,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -1944,7 +1944,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -1970,7 +1970,7 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
@@ -1996,7 +1996,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
@@ -2165,7 +2165,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -2191,7 +2191,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -2217,7 +2217,7 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
@@ -2243,7 +2243,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
@@ -2412,7 +2412,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -2438,7 +2438,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -2659,7 +2659,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -2906,7 +2906,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -2932,7 +2932,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -2958,7 +2958,7 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
@@ -2984,7 +2984,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
@@ -3153,7 +3153,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -3179,7 +3179,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -3205,7 +3205,7 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
@@ -5766,7 +5766,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
@@ -5935,7 +5935,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -5961,7 +5961,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -5987,7 +5987,7 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
@@ -6182,7 +6182,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
@@ -6208,7 +6208,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -6234,7 +6234,7 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
         <v>43</v>
@@ -6260,7 +6260,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
@@ -6286,7 +6286,7 @@
         <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
         <v>49</v>
@@ -6312,7 +6312,7 @@
         <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
         <v>49</v>
@@ -6364,7 +6364,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
         <v>49</v>

--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-detail.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="242">
   <si>
     <t>mesure</t>
   </si>
@@ -60,49 +60,85 @@
     <t>Dédoubler les classes en REP (grande section, CP, CE1)</t>
   </si>
   <si>
+    <t>Part des classes de CP et CE1 en REP dédoublées</t>
+  </si>
+  <si>
+    <t>tx-classes-cp-ce1-rep</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>% des classes</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
     <t>Part des classes de grande section en REP dédoublées</t>
   </si>
   <si>
     <t>tx-gs-rep</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
     <t>2019-11-30</t>
   </si>
   <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>% des classes</t>
-  </si>
-  <si>
     <t>2020-11-30</t>
   </si>
   <si>
     <t>30.0</t>
   </si>
   <si>
-    <t>Part des classes de CP et CE1 en REP dédoublées</t>
-  </si>
-  <si>
-    <t>tx-classes-cp-ce1-rep</t>
-  </si>
-  <si>
-    <t>2019-10-31</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>2020-10-31</t>
-  </si>
-  <si>
-    <t>100.0</t>
+    <t>Devoirs faits au collège</t>
+  </si>
+  <si>
+    <t>Part de collégiens bénéficiant du dispositif (en %)</t>
+  </si>
+  <si>
+    <t>taux-collegiens-beneficiaires</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>% de collégiens</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>34.0</t>
   </si>
   <si>
     <t xml:space="preserve">Déployer Parcoursup </t>
@@ -135,76 +171,79 @@
     <t>tx-classes-cp-ce1</t>
   </si>
   <si>
-    <t>2019-09-30</t>
-  </si>
-  <si>
     <t>86.0</t>
   </si>
   <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
     <t>88.0</t>
   </si>
   <si>
     <t>Offrir une scolarisation inclusive à tous les enfants handicapés</t>
   </si>
   <si>
+    <t>Nombre d’unités locales d’inclusion scolaires (ULIS) pour les élèves en situation de handicap à l’école maternelle, à l’école élémentaire, au collège et au lycée</t>
+  </si>
+  <si>
+    <t>nombre-creation-ulis</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>unités</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
     <t>Nombre de classes adaptées à la scolarisation des enfants autistes (UEMA/UEEA) à l’école maternelle et à l’école élémentaire</t>
   </si>
   <si>
     <t>nombre-creation-ueea</t>
   </si>
   <si>
-    <t>2017-09-30</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
     <t>classes</t>
   </si>
   <si>
-    <t>2018-09-30</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>Nombre d’unités locales d’inclusion scolaires (ULIS) pour les élèves en situation de handicap à l’école maternelle, à l’école élémentaire, au collège et au lycée</t>
-  </si>
-  <si>
-    <t>nombre-creation-ulis</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>unités</t>
-  </si>
-  <si>
-    <t>121.0</t>
-  </si>
-  <si>
-    <t>128.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
     <t>Martinique</t>
   </si>
   <si>
+    <t>92.0</t>
+  </si>
+  <si>
     <t>14.0</t>
   </si>
   <si>
     <t>46.0</t>
   </si>
   <si>
-    <t>92.0</t>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
   </si>
   <si>
     <t>95.0</t>
@@ -234,6 +273,12 @@
     <t>94.0</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
     <t>24.0</t>
   </si>
   <si>
@@ -267,6 +312,12 @@
     <t>16.0</t>
   </si>
   <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
     <t>22.0</t>
   </si>
   <si>
@@ -294,16 +345,19 @@
     <t>Mayotte</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>98.0</t>
   </si>
   <si>
     <t>99.0</t>
   </si>
   <si>
-    <t>28.0</t>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
   </si>
   <si>
     <t>87.0</t>
@@ -330,6 +384,30 @@
     <t>Île-de-France</t>
   </si>
   <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>197.0</t>
+  </si>
+  <si>
+    <t>184.0</t>
+  </si>
+  <si>
+    <t>208.0</t>
+  </si>
+  <si>
+    <t>1267.0</t>
+  </si>
+  <si>
+    <t>1300.0</t>
+  </si>
+  <si>
+    <t>1356.0</t>
+  </si>
+  <si>
+    <t>1408.0</t>
+  </si>
+  <si>
     <t>11.0</t>
   </si>
   <si>
@@ -339,135 +417,186 @@
     <t>25.0</t>
   </si>
   <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>1267.0</t>
-  </si>
-  <si>
-    <t>1300.0</t>
-  </si>
-  <si>
-    <t>1356.0</t>
-  </si>
-  <si>
-    <t>1408.0</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
     <t>Centre-Val de Loire</t>
   </si>
   <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>204.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>367.0</t>
+  </si>
+  <si>
+    <t>384.0</t>
+  </si>
+  <si>
+    <t>406.0</t>
+  </si>
+  <si>
     <t>6.0</t>
   </si>
   <si>
     <t>8.0</t>
   </si>
   <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>367.0</t>
-  </si>
-  <si>
-    <t>384.0</t>
-  </si>
-  <si>
-    <t>406.0</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>405.0</t>
+  </si>
+  <si>
+    <t>422.0</t>
+  </si>
+  <si>
+    <t>437.0</t>
+  </si>
+  <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>405.0</t>
-  </si>
-  <si>
-    <t>422.0</t>
-  </si>
-  <si>
-    <t>437.0</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
     <t>Normandie</t>
   </si>
   <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>395.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>456.0</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
     <t>13.0</t>
   </si>
   <si>
-    <t>395.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>456.0</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
     <t>Hauts-de-France</t>
   </si>
   <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>178.0</t>
+  </si>
+  <si>
+    <t>938.0</t>
+  </si>
+  <si>
+    <t>949.0</t>
+  </si>
+  <si>
+    <t>986.0</t>
+  </si>
+  <si>
+    <t>1005.0</t>
+  </si>
+  <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>938.0</t>
-  </si>
-  <si>
-    <t>949.0</t>
-  </si>
-  <si>
-    <t>986.0</t>
-  </si>
-  <si>
-    <t>1005.0</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
     <t>Grand Est</t>
   </si>
   <si>
+    <t>306.0</t>
+  </si>
+  <si>
+    <t>318.0</t>
+  </si>
+  <si>
+    <t>332.0</t>
+  </si>
+  <si>
+    <t>346.0</t>
+  </si>
+  <si>
+    <t>815.0</t>
+  </si>
+  <si>
+    <t>845.0</t>
+  </si>
+  <si>
+    <t>874.0</t>
+  </si>
+  <si>
+    <t>924.0</t>
+  </si>
+  <si>
     <t>15.0</t>
   </si>
   <si>
-    <t>815.0</t>
-  </si>
-  <si>
-    <t>845.0</t>
-  </si>
-  <si>
-    <t>874.0</t>
-  </si>
-  <si>
-    <t>924.0</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
     <t>Pays de la Loire</t>
   </si>
   <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>115.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
     <t>427.0</t>
   </si>
   <si>
@@ -486,6 +615,12 @@
     <t>Bretagne</t>
   </si>
   <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>124.0</t>
+  </si>
+  <si>
     <t>333.0</t>
   </si>
   <si>
@@ -504,6 +639,15 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>403.0</t>
+  </si>
+  <si>
+    <t>401.0</t>
+  </si>
+  <si>
     <t>752.0</t>
   </si>
   <si>
@@ -522,48 +666,75 @@
     <t>Occitanie</t>
   </si>
   <si>
+    <t>355.0</t>
+  </si>
+  <si>
+    <t>374.0</t>
+  </si>
+  <si>
+    <t>700.0</t>
+  </si>
+  <si>
+    <t>745.0</t>
+  </si>
+  <si>
+    <t>791.0</t>
+  </si>
+  <si>
+    <t>836.0</t>
+  </si>
+  <si>
     <t>23.0</t>
   </si>
   <si>
-    <t>700.0</t>
-  </si>
-  <si>
-    <t>745.0</t>
-  </si>
-  <si>
-    <t>791.0</t>
-  </si>
-  <si>
-    <t>836.0</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
+    <t>267.0</t>
+  </si>
+  <si>
+    <t>316.0</t>
+  </si>
+  <si>
+    <t>310.0</t>
+  </si>
+  <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>1055.0</t>
+  </si>
+  <si>
+    <t>1094.0</t>
+  </si>
+  <si>
+    <t>1127.0</t>
+  </si>
+  <si>
+    <t>1187.0</t>
+  </si>
+  <si>
     <t>18.0</t>
   </si>
   <si>
-    <t>1055.0</t>
-  </si>
-  <si>
-    <t>1094.0</t>
-  </si>
-  <si>
-    <t>1127.0</t>
-  </si>
-  <si>
-    <t>1187.0</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
     <t>578.0</t>
   </si>
   <si>
@@ -582,10 +753,10 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
   </si>
 </sst>
 </file>
@@ -917,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1096,10 +1267,10 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
@@ -1107,13 +1278,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1122,24 +1293,24 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1148,24 +1319,24 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1174,24 +1345,24 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1200,24 +1371,24 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1226,24 +1397,24 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1252,24 +1423,24 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1278,24 +1449,24 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -1304,24 +1475,24 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1330,24 +1501,24 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -1356,13 +1527,117 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1372,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1406,210 +1681,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1998,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1653,210 +2032,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +2349,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1900,210 +2383,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2700,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2147,210 +2734,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +3051,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2394,210 +3085,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2607,7 +3402,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2641,210 +3436,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
         <v>161</v>
       </c>
-      <c r="E9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2854,7 +3753,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2888,210 +3787,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +4104,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3135,210 +4138,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +4455,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3382,210 +4489,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +4806,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3638,16 +4849,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3664,16 +4875,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3690,16 +4901,16 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3716,16 +4927,16 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3742,16 +4953,16 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -3768,16 +4979,16 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
@@ -3785,262 +4996,366 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
         <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
         <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
         <v>63</v>
       </c>
-      <c r="H17" t="s">
-        <v>49</v>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4050,7 +5365,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4093,16 +5408,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4119,16 +5434,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4145,16 +5460,16 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4171,16 +5486,16 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4197,16 +5512,16 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -4223,16 +5538,16 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
@@ -4240,262 +5555,366 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4505,7 +5924,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4548,16 +5967,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4574,16 +5993,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4600,16 +6019,16 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4626,16 +6045,16 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4652,16 +6071,16 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -4678,16 +6097,16 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
@@ -4695,262 +6114,366 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4960,7 +6483,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5003,16 +6526,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5029,16 +6552,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5055,16 +6578,16 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5081,16 +6604,16 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5107,16 +6630,16 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -5124,262 +6647,366 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5389,7 +7016,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5423,210 +7050,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5636,7 +7367,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5670,210 +7401,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5883,7 +7718,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5917,210 +7752,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6130,7 +8069,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6164,210 +8103,314 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-detail.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="612">
   <si>
     <t>mesure</t>
   </si>
@@ -786,88 +786,91 @@
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>1267.0</t>
-  </si>
-  <si>
-    <t>1300.0</t>
-  </si>
-  <si>
-    <t>1356.0</t>
-  </si>
-  <si>
-    <t>1408.0</t>
-  </si>
-  <si>
-    <t>1453.0</t>
-  </si>
-  <si>
-    <t>8155.0</t>
-  </si>
-  <si>
-    <t>9723.0</t>
-  </si>
-  <si>
-    <t>12275.0</t>
-  </si>
-  <si>
-    <t>17227.0</t>
-  </si>
-  <si>
-    <t>9881.0</t>
-  </si>
-  <si>
-    <t>11372.0</t>
-  </si>
-  <si>
-    <t>14178.0</t>
-  </si>
-  <si>
-    <t>19090.0</t>
-  </si>
-  <si>
-    <t>10258.0</t>
-  </si>
-  <si>
-    <t>11646.0</t>
-  </si>
-  <si>
-    <t>14278.0</t>
-  </si>
-  <si>
-    <t>19102.0</t>
-  </si>
-  <si>
-    <t>9475.0</t>
-  </si>
-  <si>
-    <t>9971.0</t>
-  </si>
-  <si>
-    <t>12757.0</t>
-  </si>
-  <si>
-    <t>18315.0</t>
-  </si>
-  <si>
-    <t>10984.0</t>
-  </si>
-  <si>
-    <t>12857.0</t>
-  </si>
-  <si>
-    <t>15560.0</t>
-  </si>
-  <si>
-    <t>20653.0</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>8155</t>
+  </si>
+  <si>
+    <t>9723</t>
+  </si>
+  <si>
+    <t>12275</t>
+  </si>
+  <si>
+    <t>17227</t>
+  </si>
+  <si>
+    <t>9881</t>
+  </si>
+  <si>
+    <t>11372</t>
+  </si>
+  <si>
+    <t>14178</t>
+  </si>
+  <si>
+    <t>19090</t>
+  </si>
+  <si>
+    <t>10258</t>
+  </si>
+  <si>
+    <t>11646</t>
+  </si>
+  <si>
+    <t>14278</t>
+  </si>
+  <si>
+    <t>19102</t>
+  </si>
+  <si>
+    <t>9475</t>
+  </si>
+  <si>
+    <t>9971</t>
+  </si>
+  <si>
+    <t>12757</t>
+  </si>
+  <si>
+    <t>18315</t>
+  </si>
+  <si>
+    <t>10984</t>
+  </si>
+  <si>
+    <t>12857</t>
+  </si>
+  <si>
+    <t>15560</t>
+  </si>
+  <si>
+    <t>20653</t>
   </si>
   <si>
     <t>24</t>
@@ -876,76 +879,85 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>367.0</t>
-  </si>
-  <si>
-    <t>384.0</t>
-  </si>
-  <si>
-    <t>406.0</t>
-  </si>
-  <si>
-    <t>423.0</t>
-  </si>
-  <si>
-    <t>1931.0</t>
-  </si>
-  <si>
-    <t>2108.0</t>
-  </si>
-  <si>
-    <t>2560.0</t>
-  </si>
-  <si>
-    <t>4263.0</t>
-  </si>
-  <si>
-    <t>2482.0</t>
-  </si>
-  <si>
-    <t>2686.0</t>
-  </si>
-  <si>
-    <t>3459.0</t>
-  </si>
-  <si>
-    <t>4963.0</t>
-  </si>
-  <si>
-    <t>2768.0</t>
-  </si>
-  <si>
-    <t>2997.0</t>
-  </si>
-  <si>
-    <t>3534.0</t>
-  </si>
-  <si>
-    <t>5122.0</t>
-  </si>
-  <si>
-    <t>2472.0</t>
-  </si>
-  <si>
-    <t>2541.0</t>
-  </si>
-  <si>
-    <t>3066.0</t>
-  </si>
-  <si>
-    <t>4853.0</t>
-  </si>
-  <si>
-    <t>2953.0</t>
-  </si>
-  <si>
-    <t>3590.0</t>
-  </si>
-  <si>
-    <t>5184.0</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2560</t>
+  </si>
+  <si>
+    <t>4263</t>
+  </si>
+  <si>
+    <t>2482</t>
+  </si>
+  <si>
+    <t>2686</t>
+  </si>
+  <si>
+    <t>3459</t>
+  </si>
+  <si>
+    <t>4963</t>
+  </si>
+  <si>
+    <t>2768</t>
+  </si>
+  <si>
+    <t>2997</t>
+  </si>
+  <si>
+    <t>3534</t>
+  </si>
+  <si>
+    <t>5122</t>
+  </si>
+  <si>
+    <t>2472</t>
+  </si>
+  <si>
+    <t>2541</t>
+  </si>
+  <si>
+    <t>3066</t>
+  </si>
+  <si>
+    <t>4853</t>
+  </si>
+  <si>
+    <t>2953</t>
+  </si>
+  <si>
+    <t>3590</t>
+  </si>
+  <si>
+    <t>5184</t>
   </si>
   <si>
     <t>27</t>
@@ -954,85 +966,88 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>405.0</t>
-  </si>
-  <si>
-    <t>422.0</t>
-  </si>
-  <si>
-    <t>437.0</t>
-  </si>
-  <si>
-    <t>446.0</t>
-  </si>
-  <si>
-    <t>2451.0</t>
-  </si>
-  <si>
-    <t>2843.0</t>
-  </si>
-  <si>
-    <t>3549.0</t>
-  </si>
-  <si>
-    <t>5164.0</t>
-  </si>
-  <si>
-    <t>2947.0</t>
-  </si>
-  <si>
-    <t>3271.0</t>
-  </si>
-  <si>
-    <t>4165.0</t>
-  </si>
-  <si>
-    <t>5757.0</t>
-  </si>
-  <si>
-    <t>3144.0</t>
-  </si>
-  <si>
-    <t>3479.0</t>
-  </si>
-  <si>
-    <t>4285.0</t>
-  </si>
-  <si>
-    <t>5893.0</t>
-  </si>
-  <si>
-    <t>2890.0</t>
-  </si>
-  <si>
-    <t>2983.0</t>
-  </si>
-  <si>
-    <t>3744.0</t>
-  </si>
-  <si>
-    <t>5603.0</t>
-  </si>
-  <si>
-    <t>3092.0</t>
-  </si>
-  <si>
-    <t>3419.0</t>
-  </si>
-  <si>
-    <t>4210.0</t>
-  </si>
-  <si>
-    <t>5736.0</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>2451</t>
+  </si>
+  <si>
+    <t>2843</t>
+  </si>
+  <si>
+    <t>3549</t>
+  </si>
+  <si>
+    <t>5164</t>
+  </si>
+  <si>
+    <t>2947</t>
+  </si>
+  <si>
+    <t>3271</t>
+  </si>
+  <si>
+    <t>4165</t>
+  </si>
+  <si>
+    <t>5757</t>
+  </si>
+  <si>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>3479</t>
+  </si>
+  <si>
+    <t>4285</t>
+  </si>
+  <si>
+    <t>5893</t>
+  </si>
+  <si>
+    <t>2890</t>
+  </si>
+  <si>
+    <t>2983</t>
+  </si>
+  <si>
+    <t>3744</t>
+  </si>
+  <si>
+    <t>5603</t>
+  </si>
+  <si>
+    <t>3092</t>
+  </si>
+  <si>
+    <t>3419</t>
+  </si>
+  <si>
+    <t>4210</t>
+  </si>
+  <si>
+    <t>5736</t>
   </si>
   <si>
     <t>28</t>
@@ -1041,82 +1056,85 @@
     <t>Normandie</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>395.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>456.0</t>
-  </si>
-  <si>
-    <t>488.0</t>
-  </si>
-  <si>
-    <t>2817.0</t>
-  </si>
-  <si>
-    <t>3616.0</t>
-  </si>
-  <si>
-    <t>5396.0</t>
-  </si>
-  <si>
-    <t>3122.0</t>
-  </si>
-  <si>
-    <t>3512.0</t>
-  </si>
-  <si>
-    <t>4463.0</t>
-  </si>
-  <si>
-    <t>6262.0</t>
-  </si>
-  <si>
-    <t>3612.0</t>
-  </si>
-  <si>
-    <t>3965.0</t>
-  </si>
-  <si>
-    <t>4884.0</t>
-  </si>
-  <si>
-    <t>6575.0</t>
-  </si>
-  <si>
-    <t>3299.0</t>
-  </si>
-  <si>
-    <t>3424.0</t>
-  </si>
-  <si>
-    <t>4309.0</t>
-  </si>
-  <si>
-    <t>6327.0</t>
-  </si>
-  <si>
-    <t>3488.0</t>
-  </si>
-  <si>
-    <t>3823.0</t>
-  </si>
-  <si>
-    <t>4773.0</t>
-  </si>
-  <si>
-    <t>6794.0</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>2468</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>3616</t>
+  </si>
+  <si>
+    <t>5396</t>
+  </si>
+  <si>
+    <t>3122</t>
+  </si>
+  <si>
+    <t>3512</t>
+  </si>
+  <si>
+    <t>4463</t>
+  </si>
+  <si>
+    <t>6262</t>
+  </si>
+  <si>
+    <t>3612</t>
+  </si>
+  <si>
+    <t>3965</t>
+  </si>
+  <si>
+    <t>4884</t>
+  </si>
+  <si>
+    <t>6575</t>
+  </si>
+  <si>
+    <t>3299</t>
+  </si>
+  <si>
+    <t>3424</t>
+  </si>
+  <si>
+    <t>4309</t>
+  </si>
+  <si>
+    <t>6327</t>
+  </si>
+  <si>
+    <t>3488</t>
+  </si>
+  <si>
+    <t>3823</t>
+  </si>
+  <si>
+    <t>4773</t>
+  </si>
+  <si>
+    <t>6794</t>
   </si>
   <si>
     <t>32</t>
@@ -1125,79 +1143,85 @@
     <t>Hauts-de-France</t>
   </si>
   <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>949.0</t>
-  </si>
-  <si>
-    <t>986.0</t>
-  </si>
-  <si>
-    <t>1005.0</t>
-  </si>
-  <si>
-    <t>1030.0</t>
-  </si>
-  <si>
-    <t>6106.0</t>
-  </si>
-  <si>
-    <t>7248.0</t>
-  </si>
-  <si>
-    <t>8909.0</t>
-  </si>
-  <si>
-    <t>13409.0</t>
-  </si>
-  <si>
-    <t>8056.0</t>
-  </si>
-  <si>
-    <t>9176.0</t>
-  </si>
-  <si>
-    <t>11193.0</t>
-  </si>
-  <si>
-    <t>15929.0</t>
-  </si>
-  <si>
-    <t>8592.0</t>
-  </si>
-  <si>
-    <t>9728.0</t>
-  </si>
-  <si>
-    <t>11682.0</t>
-  </si>
-  <si>
-    <t>15830.0</t>
-  </si>
-  <si>
-    <t>7656.0</t>
-  </si>
-  <si>
-    <t>7961.0</t>
-  </si>
-  <si>
-    <t>10070.0</t>
-  </si>
-  <si>
-    <t>15398.0</t>
-  </si>
-  <si>
-    <t>8872.0</t>
-  </si>
-  <si>
-    <t>10097.0</t>
-  </si>
-  <si>
-    <t>12323.0</t>
-  </si>
-  <si>
-    <t>17634.0</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>6106</t>
+  </si>
+  <si>
+    <t>7248</t>
+  </si>
+  <si>
+    <t>8909</t>
+  </si>
+  <si>
+    <t>13409</t>
+  </si>
+  <si>
+    <t>8056</t>
+  </si>
+  <si>
+    <t>9176</t>
+  </si>
+  <si>
+    <t>11193</t>
+  </si>
+  <si>
+    <t>15929</t>
+  </si>
+  <si>
+    <t>8592</t>
+  </si>
+  <si>
+    <t>9728</t>
+  </si>
+  <si>
+    <t>11682</t>
+  </si>
+  <si>
+    <t>15830</t>
+  </si>
+  <si>
+    <t>7656</t>
+  </si>
+  <si>
+    <t>7961</t>
+  </si>
+  <si>
+    <t>10070</t>
+  </si>
+  <si>
+    <t>15398</t>
+  </si>
+  <si>
+    <t>8872</t>
+  </si>
+  <si>
+    <t>10097</t>
+  </si>
+  <si>
+    <t>12323</t>
+  </si>
+  <si>
+    <t>17634</t>
   </si>
   <si>
     <t>44</t>
@@ -1206,85 +1230,85 @@
     <t>Grand Est</t>
   </si>
   <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>845.0</t>
-  </si>
-  <si>
-    <t>874.0</t>
-  </si>
-  <si>
-    <t>924.0</t>
-  </si>
-  <si>
-    <t>996.0</t>
-  </si>
-  <si>
-    <t>4547.0</t>
-  </si>
-  <si>
-    <t>5276.0</t>
-  </si>
-  <si>
-    <t>6517.0</t>
-  </si>
-  <si>
-    <t>9856.0</t>
-  </si>
-  <si>
-    <t>5812.0</t>
-  </si>
-  <si>
-    <t>6550.0</t>
-  </si>
-  <si>
-    <t>8089.0</t>
-  </si>
-  <si>
-    <t>11288.0</t>
-  </si>
-  <si>
-    <t>6125.0</t>
-  </si>
-  <si>
-    <t>6799.0</t>
-  </si>
-  <si>
-    <t>8137.0</t>
-  </si>
-  <si>
-    <t>11416.0</t>
-  </si>
-  <si>
-    <t>5501.0</t>
-  </si>
-  <si>
-    <t>5732.0</t>
-  </si>
-  <si>
-    <t>6982.0</t>
-  </si>
-  <si>
-    <t>10560.0</t>
-  </si>
-  <si>
-    <t>5788.0</t>
-  </si>
-  <si>
-    <t>6491.0</t>
-  </si>
-  <si>
-    <t>7777.0</t>
-  </si>
-  <si>
-    <t>10834.0</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>4547</t>
+  </si>
+  <si>
+    <t>5276</t>
+  </si>
+  <si>
+    <t>6517</t>
+  </si>
+  <si>
+    <t>9856</t>
+  </si>
+  <si>
+    <t>5812</t>
+  </si>
+  <si>
+    <t>6550</t>
+  </si>
+  <si>
+    <t>8089</t>
+  </si>
+  <si>
+    <t>11288</t>
+  </si>
+  <si>
+    <t>6125</t>
+  </si>
+  <si>
+    <t>6799</t>
+  </si>
+  <si>
+    <t>8137</t>
+  </si>
+  <si>
+    <t>11416</t>
+  </si>
+  <si>
+    <t>5501</t>
+  </si>
+  <si>
+    <t>5732</t>
+  </si>
+  <si>
+    <t>6982</t>
+  </si>
+  <si>
+    <t>10560</t>
+  </si>
+  <si>
+    <t>5788</t>
+  </si>
+  <si>
+    <t>6491</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>10834</t>
   </si>
   <si>
     <t>52</t>
@@ -1293,76 +1317,76 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
-    <t>427.0</t>
-  </si>
-  <si>
-    <t>426.0</t>
-  </si>
-  <si>
-    <t>434.0</t>
-  </si>
-  <si>
-    <t>443.0</t>
-  </si>
-  <si>
-    <t>460.0</t>
-  </si>
-  <si>
-    <t>2864.0</t>
-  </si>
-  <si>
-    <t>3168.0</t>
-  </si>
-  <si>
-    <t>3883.0</t>
-  </si>
-  <si>
-    <t>5879.0</t>
-  </si>
-  <si>
-    <t>3342.0</t>
-  </si>
-  <si>
-    <t>3645.0</t>
-  </si>
-  <si>
-    <t>4589.0</t>
-  </si>
-  <si>
-    <t>6563.0</t>
-  </si>
-  <si>
-    <t>3669.0</t>
-  </si>
-  <si>
-    <t>3969.0</t>
-  </si>
-  <si>
-    <t>4827.0</t>
-  </si>
-  <si>
-    <t>6758.0</t>
-  </si>
-  <si>
-    <t>3448.0</t>
-  </si>
-  <si>
-    <t>4334.0</t>
-  </si>
-  <si>
-    <t>6504.0</t>
-  </si>
-  <si>
-    <t>3560.0</t>
-  </si>
-  <si>
-    <t>3860.0</t>
-  </si>
-  <si>
-    <t>4705.0</t>
-  </si>
-  <si>
-    <t>6418.0</t>
+    <t>427</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>2864</t>
+  </si>
+  <si>
+    <t>3168</t>
+  </si>
+  <si>
+    <t>3883</t>
+  </si>
+  <si>
+    <t>5879</t>
+  </si>
+  <si>
+    <t>3342</t>
+  </si>
+  <si>
+    <t>3645</t>
+  </si>
+  <si>
+    <t>4589</t>
+  </si>
+  <si>
+    <t>6563</t>
+  </si>
+  <si>
+    <t>3669</t>
+  </si>
+  <si>
+    <t>3969</t>
+  </si>
+  <si>
+    <t>4827</t>
+  </si>
+  <si>
+    <t>6758</t>
+  </si>
+  <si>
+    <t>3448</t>
+  </si>
+  <si>
+    <t>4334</t>
+  </si>
+  <si>
+    <t>6504</t>
+  </si>
+  <si>
+    <t>3560</t>
+  </si>
+  <si>
+    <t>3860</t>
+  </si>
+  <si>
+    <t>4705</t>
+  </si>
+  <si>
+    <t>6418</t>
   </si>
   <si>
     <t>53</t>
@@ -1371,76 +1395,76 @@
     <t>Bretagne</t>
   </si>
   <si>
-    <t>333.0</t>
-  </si>
-  <si>
-    <t>345.0</t>
-  </si>
-  <si>
-    <t>349.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>373.0</t>
-  </si>
-  <si>
-    <t>1914.0</t>
-  </si>
-  <si>
-    <t>2217.0</t>
-  </si>
-  <si>
-    <t>2878.0</t>
-  </si>
-  <si>
-    <t>4138.0</t>
-  </si>
-  <si>
-    <t>2408.0</t>
-  </si>
-  <si>
-    <t>2664.0</t>
-  </si>
-  <si>
-    <t>3412.0</t>
-  </si>
-  <si>
-    <t>4795.0</t>
-  </si>
-  <si>
-    <t>2670.0</t>
-  </si>
-  <si>
-    <t>2972.0</t>
-  </si>
-  <si>
-    <t>3550.0</t>
-  </si>
-  <si>
-    <t>4973.0</t>
-  </si>
-  <si>
-    <t>2474.0</t>
-  </si>
-  <si>
-    <t>3162.0</t>
-  </si>
-  <si>
-    <t>4702.0</t>
-  </si>
-  <si>
-    <t>2569.0</t>
-  </si>
-  <si>
-    <t>2863.0</t>
-  </si>
-  <si>
-    <t>3587.0</t>
-  </si>
-  <si>
-    <t>4879.0</t>
+    <t>333</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>2217</t>
+  </si>
+  <si>
+    <t>2878</t>
+  </si>
+  <si>
+    <t>4138</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2664</t>
+  </si>
+  <si>
+    <t>3412</t>
+  </si>
+  <si>
+    <t>4795</t>
+  </si>
+  <si>
+    <t>2670</t>
+  </si>
+  <si>
+    <t>2972</t>
+  </si>
+  <si>
+    <t>3550</t>
+  </si>
+  <si>
+    <t>4973</t>
+  </si>
+  <si>
+    <t>2474</t>
+  </si>
+  <si>
+    <t>3162</t>
+  </si>
+  <si>
+    <t>4702</t>
+  </si>
+  <si>
+    <t>2569</t>
+  </si>
+  <si>
+    <t>2863</t>
+  </si>
+  <si>
+    <t>3587</t>
+  </si>
+  <si>
+    <t>4879</t>
   </si>
   <si>
     <t>75</t>
@@ -1449,76 +1473,76 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>752.0</t>
-  </si>
-  <si>
-    <t>781.0</t>
-  </si>
-  <si>
-    <t>790.0</t>
-  </si>
-  <si>
-    <t>810.0</t>
-  </si>
-  <si>
-    <t>5456.0</t>
-  </si>
-  <si>
-    <t>6256.0</t>
-  </si>
-  <si>
-    <t>7641.0</t>
-  </si>
-  <si>
-    <t>11290.0</t>
-  </si>
-  <si>
-    <t>6564.0</t>
-  </si>
-  <si>
-    <t>7310.0</t>
-  </si>
-  <si>
-    <t>8971.0</t>
-  </si>
-  <si>
-    <t>13036.0</t>
-  </si>
-  <si>
-    <t>7174.0</t>
-  </si>
-  <si>
-    <t>7943.0</t>
-  </si>
-  <si>
-    <t>9633.0</t>
-  </si>
-  <si>
-    <t>12790.0</t>
-  </si>
-  <si>
-    <t>6408.0</t>
-  </si>
-  <si>
-    <t>6666.0</t>
-  </si>
-  <si>
-    <t>8083.0</t>
-  </si>
-  <si>
-    <t>12091.0</t>
-  </si>
-  <si>
-    <t>6539.0</t>
-  </si>
-  <si>
-    <t>8783.0</t>
-  </si>
-  <si>
-    <t>12178.0</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>5456</t>
+  </si>
+  <si>
+    <t>6256</t>
+  </si>
+  <si>
+    <t>7641</t>
+  </si>
+  <si>
+    <t>11290</t>
+  </si>
+  <si>
+    <t>6564</t>
+  </si>
+  <si>
+    <t>7310</t>
+  </si>
+  <si>
+    <t>8971</t>
+  </si>
+  <si>
+    <t>13036</t>
+  </si>
+  <si>
+    <t>7174</t>
+  </si>
+  <si>
+    <t>7943</t>
+  </si>
+  <si>
+    <t>9633</t>
+  </si>
+  <si>
+    <t>12790</t>
+  </si>
+  <si>
+    <t>6408</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>8083</t>
+  </si>
+  <si>
+    <t>12091</t>
+  </si>
+  <si>
+    <t>6539</t>
+  </si>
+  <si>
+    <t>8783</t>
+  </si>
+  <si>
+    <t>12178</t>
   </si>
   <si>
     <t>76</t>
@@ -1527,85 +1551,88 @@
     <t>Occitanie</t>
   </si>
   <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>700.0</t>
-  </si>
-  <si>
-    <t>745.0</t>
-  </si>
-  <si>
-    <t>791.0</t>
-  </si>
-  <si>
-    <t>836.0</t>
-  </si>
-  <si>
-    <t>886.0</t>
-  </si>
-  <si>
-    <t>5285.0</t>
-  </si>
-  <si>
-    <t>6105.0</t>
-  </si>
-  <si>
-    <t>7554.0</t>
-  </si>
-  <si>
-    <t>11737.0</t>
-  </si>
-  <si>
-    <t>6790.0</t>
-  </si>
-  <si>
-    <t>7658.0</t>
-  </si>
-  <si>
-    <t>9184.0</t>
-  </si>
-  <si>
-    <t>13594.0</t>
-  </si>
-  <si>
-    <t>7481.0</t>
-  </si>
-  <si>
-    <t>8314.0</t>
-  </si>
-  <si>
-    <t>9826.0</t>
-  </si>
-  <si>
-    <t>13291.0</t>
-  </si>
-  <si>
-    <t>6204.0</t>
-  </si>
-  <si>
-    <t>6493.0</t>
-  </si>
-  <si>
-    <t>8030.0</t>
-  </si>
-  <si>
-    <t>12072.0</t>
-  </si>
-  <si>
-    <t>6728.0</t>
-  </si>
-  <si>
-    <t>7635.0</t>
-  </si>
-  <si>
-    <t>9251.0</t>
-  </si>
-  <si>
-    <t>12931.0</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>5285</t>
+  </si>
+  <si>
+    <t>6105</t>
+  </si>
+  <si>
+    <t>7554</t>
+  </si>
+  <si>
+    <t>11737</t>
+  </si>
+  <si>
+    <t>6790</t>
+  </si>
+  <si>
+    <t>7658</t>
+  </si>
+  <si>
+    <t>9184</t>
+  </si>
+  <si>
+    <t>13594</t>
+  </si>
+  <si>
+    <t>7481</t>
+  </si>
+  <si>
+    <t>8314</t>
+  </si>
+  <si>
+    <t>9826</t>
+  </si>
+  <si>
+    <t>13291</t>
+  </si>
+  <si>
+    <t>6204</t>
+  </si>
+  <si>
+    <t>6493</t>
+  </si>
+  <si>
+    <t>8030</t>
+  </si>
+  <si>
+    <t>12072</t>
+  </si>
+  <si>
+    <t>6728</t>
+  </si>
+  <si>
+    <t>7635</t>
+  </si>
+  <si>
+    <t>9251</t>
+  </si>
+  <si>
+    <t>12931</t>
   </si>
   <si>
     <t>84</t>
@@ -1614,79 +1641,79 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>1055.0</t>
-  </si>
-  <si>
-    <t>1094.0</t>
-  </si>
-  <si>
-    <t>1127.0</t>
-  </si>
-  <si>
-    <t>1187.0</t>
-  </si>
-  <si>
-    <t>1248.0</t>
-  </si>
-  <si>
-    <t>5243.0</t>
-  </si>
-  <si>
-    <t>5900.0</t>
-  </si>
-  <si>
-    <t>11196.0</t>
-  </si>
-  <si>
-    <t>6649.0</t>
-  </si>
-  <si>
-    <t>7282.0</t>
-  </si>
-  <si>
-    <t>9411.0</t>
-  </si>
-  <si>
-    <t>13241.0</t>
-  </si>
-  <si>
-    <t>7294.0</t>
-  </si>
-  <si>
-    <t>7994.0</t>
-  </si>
-  <si>
-    <t>10007.0</t>
-  </si>
-  <si>
-    <t>13273.0</t>
-  </si>
-  <si>
-    <t>6475.0</t>
-  </si>
-  <si>
-    <t>6675.0</t>
-  </si>
-  <si>
-    <t>8330.0</t>
-  </si>
-  <si>
-    <t>12055.0</t>
-  </si>
-  <si>
-    <t>6630.0</t>
-  </si>
-  <si>
-    <t>7321.0</t>
-  </si>
-  <si>
-    <t>9084.0</t>
-  </si>
-  <si>
-    <t>12229.0</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1094</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1187</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>5243</t>
+  </si>
+  <si>
+    <t>5900</t>
+  </si>
+  <si>
+    <t>11196</t>
+  </si>
+  <si>
+    <t>6649</t>
+  </si>
+  <si>
+    <t>7282</t>
+  </si>
+  <si>
+    <t>9411</t>
+  </si>
+  <si>
+    <t>13241</t>
+  </si>
+  <si>
+    <t>7294</t>
+  </si>
+  <si>
+    <t>7994</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>13273</t>
+  </si>
+  <si>
+    <t>6475</t>
+  </si>
+  <si>
+    <t>6675</t>
+  </si>
+  <si>
+    <t>8330</t>
+  </si>
+  <si>
+    <t>12055</t>
+  </si>
+  <si>
+    <t>6630</t>
+  </si>
+  <si>
+    <t>7321</t>
+  </si>
+  <si>
+    <t>9084</t>
+  </si>
+  <si>
+    <t>12229</t>
   </si>
   <si>
     <t>93</t>
@@ -1695,73 +1722,76 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
-    <t>578.0</t>
-  </si>
-  <si>
-    <t>629.0</t>
-  </si>
-  <si>
-    <t>653.0</t>
-  </si>
-  <si>
-    <t>685.0</t>
-  </si>
-  <si>
-    <t>4783.0</t>
-  </si>
-  <si>
-    <t>5477.0</t>
-  </si>
-  <si>
-    <t>6621.0</t>
-  </si>
-  <si>
-    <t>9525.0</t>
-  </si>
-  <si>
-    <t>5310.0</t>
-  </si>
-  <si>
-    <t>6021.0</t>
-  </si>
-  <si>
-    <t>7207.0</t>
-  </si>
-  <si>
-    <t>10051.0</t>
-  </si>
-  <si>
-    <t>5329.0</t>
-  </si>
-  <si>
-    <t>6060.0</t>
-  </si>
-  <si>
-    <t>7231.0</t>
-  </si>
-  <si>
-    <t>9667.0</t>
-  </si>
-  <si>
-    <t>4569.0</t>
-  </si>
-  <si>
-    <t>4766.0</t>
-  </si>
-  <si>
-    <t>5914.0</t>
-  </si>
-  <si>
-    <t>8676.0</t>
-  </si>
-  <si>
-    <t>4728.0</t>
-  </si>
-  <si>
-    <t>5522.0</t>
-  </si>
-  <si>
-    <t>8722.0</t>
+    <t>578</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>4783</t>
+  </si>
+  <si>
+    <t>5477</t>
+  </si>
+  <si>
+    <t>6621</t>
+  </si>
+  <si>
+    <t>9525</t>
+  </si>
+  <si>
+    <t>5310</t>
+  </si>
+  <si>
+    <t>6021</t>
+  </si>
+  <si>
+    <t>7207</t>
+  </si>
+  <si>
+    <t>10051</t>
+  </si>
+  <si>
+    <t>5329</t>
+  </si>
+  <si>
+    <t>6060</t>
+  </si>
+  <si>
+    <t>7231</t>
+  </si>
+  <si>
+    <t>9667</t>
+  </si>
+  <si>
+    <t>4569</t>
+  </si>
+  <si>
+    <t>4766</t>
+  </si>
+  <si>
+    <t>5914</t>
+  </si>
+  <si>
+    <t>8676</t>
+  </si>
+  <si>
+    <t>4728</t>
+  </si>
+  <si>
+    <t>5522</t>
+  </si>
+  <si>
+    <t>8722</t>
   </si>
   <si>
     <t>94</t>
@@ -1770,55 +1800,73 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>233.0</t>
-  </si>
-  <si>
-    <t>261.0</t>
-  </si>
-  <si>
-    <t>459.0</t>
-  </si>
-  <si>
-    <t>264.0</t>
-  </si>
-  <si>
-    <t>316.0</t>
-  </si>
-  <si>
-    <t>374.0</t>
-  </si>
-  <si>
-    <t>511.0</t>
-  </si>
-  <si>
-    <t>254.0</t>
-  </si>
-  <si>
-    <t>297.0</t>
-  </si>
-  <si>
-    <t>433.0</t>
-  </si>
-  <si>
-    <t>222.0</t>
-  </si>
-  <si>
-    <t>275.0</t>
-  </si>
-  <si>
-    <t>227.0</t>
-  </si>
-  <si>
-    <t>272.0</t>
-  </si>
-  <si>
-    <t>324.0</t>
-  </si>
-  <si>
-    <t>453.0</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>453</t>
   </si>
 </sst>
 </file>
@@ -3454,16 +3502,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3480,16 +3528,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3506,16 +3554,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3532,16 +3580,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3558,16 +3606,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -3584,16 +3632,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>372</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -3610,16 +3658,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -3636,16 +3684,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -3662,16 +3710,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E10" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -3688,16 +3736,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E11" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -3714,16 +3762,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -3740,16 +3788,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -3766,16 +3814,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E14" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -3792,16 +3840,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E15" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -3818,16 +3866,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E16" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -3844,16 +3892,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E17" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -3870,16 +3918,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E18" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -3896,16 +3944,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -3922,16 +3970,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E20" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -3948,16 +3996,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E21" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -3974,16 +4022,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E22" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -4000,16 +4048,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E23" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -4026,16 +4074,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E24" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -4052,16 +4100,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E25" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -4078,16 +4126,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E26" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -4104,16 +4152,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E27" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -4130,16 +4178,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E28" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -4156,16 +4204,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E29" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -4182,16 +4230,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E30" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -4208,16 +4256,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E31" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -4273,16 +4321,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4299,16 +4347,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E3" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4325,16 +4373,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4351,16 +4399,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>392</v>
+        <v>280</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4377,16 +4425,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E6" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -4403,16 +4451,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -4429,16 +4477,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E8" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -4455,16 +4503,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E9" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -4481,16 +4529,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E10" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -4507,16 +4555,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E11" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -4533,16 +4581,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E12" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -4559,16 +4607,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E13" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -4585,16 +4633,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E14" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -4611,16 +4659,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E15" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -4637,16 +4685,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E16" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -4663,16 +4711,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E17" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -4689,16 +4737,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E18" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -4715,16 +4763,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E19" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -4741,16 +4789,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E20" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -4767,16 +4815,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E21" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -4793,16 +4841,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E22" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -4819,16 +4867,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E23" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -4845,16 +4893,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E24" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -4871,16 +4919,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E25" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -4897,16 +4945,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E26" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -4923,16 +4971,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E27" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -4949,16 +4997,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E28" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -4975,16 +5023,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E29" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -5001,16 +5049,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E30" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -5027,16 +5075,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="E31" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -5092,16 +5140,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5118,16 +5166,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5144,16 +5192,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5170,16 +5218,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5196,16 +5244,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E6" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -5222,16 +5270,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -5248,16 +5296,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E8" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -5274,16 +5322,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E9" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -5300,16 +5348,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -5326,16 +5374,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E11" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -5352,16 +5400,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E12" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -5378,16 +5426,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E13" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -5404,16 +5452,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E14" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -5430,16 +5478,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E15" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -5456,16 +5504,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E16" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -5482,16 +5530,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E17" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -5508,16 +5556,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E18" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -5534,16 +5582,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E19" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -5560,16 +5608,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E20" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -5586,16 +5634,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E21" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -5612,16 +5660,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E22" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -5638,16 +5686,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E23" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -5664,16 +5712,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -5690,16 +5738,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E25" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -5716,16 +5764,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E26" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -5742,16 +5790,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E27" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -5768,16 +5816,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E28" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -5794,16 +5842,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E29" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -5820,16 +5868,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E30" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -5846,16 +5894,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E31" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -5911,16 +5959,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E2" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5937,16 +5985,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E3" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5963,16 +6011,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E4" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5989,16 +6037,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E5" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6015,16 +6063,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E6" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -6041,16 +6089,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -6067,16 +6115,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E8" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -6093,16 +6141,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E9" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -6119,16 +6167,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E10" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -6145,16 +6193,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E11" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -6171,16 +6219,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E12" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -6197,16 +6245,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -6223,16 +6271,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E14" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -6249,16 +6297,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -6275,16 +6323,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E16" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -6301,16 +6349,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -6327,16 +6375,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E18" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -6353,16 +6401,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E19" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -6379,16 +6427,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E20" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -6405,16 +6453,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E21" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -6431,16 +6479,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E22" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -6457,16 +6505,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E23" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -6483,16 +6531,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E24" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -6509,16 +6557,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E25" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -6535,16 +6583,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E26" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -6561,16 +6609,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E27" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -6587,16 +6635,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E28" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -6613,16 +6661,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E29" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -6639,16 +6687,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E30" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -6665,16 +6713,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E31" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -6730,16 +6778,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E2" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6756,16 +6804,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E3" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6782,16 +6830,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E4" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6808,16 +6856,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E5" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6834,16 +6882,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E6" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -6860,16 +6908,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -6886,16 +6934,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E8" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -6912,16 +6960,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E9" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -6938,16 +6986,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E10" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -6964,16 +7012,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E11" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -6990,16 +7038,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E12" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -7016,16 +7064,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E13" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -7042,16 +7090,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E14" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -7068,16 +7116,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E15" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -7094,16 +7142,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E16" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -7120,16 +7168,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E17" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -7146,16 +7194,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E18" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -7172,16 +7220,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E19" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -7198,16 +7246,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E20" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -7224,16 +7272,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E21" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -7250,16 +7298,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E22" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -7276,16 +7324,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E23" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -7302,16 +7350,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E24" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -7328,16 +7376,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E25" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -7354,16 +7402,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E26" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -7380,16 +7428,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E27" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -7406,16 +7454,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E28" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -7432,16 +7480,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E29" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -7458,16 +7506,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E30" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -7484,16 +7532,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E31" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -7549,16 +7597,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -7575,16 +7623,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -7601,16 +7649,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E4" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -7627,16 +7675,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E5" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -7653,16 +7701,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>508</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -7679,16 +7727,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -7705,16 +7753,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E8" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -7731,16 +7779,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E9" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -7757,16 +7805,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E10" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -7783,16 +7831,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E11" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -7809,16 +7857,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E12" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -7835,16 +7883,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E13" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -7861,16 +7909,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E14" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -7887,16 +7935,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E15" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -7913,16 +7961,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E16" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -7939,16 +7987,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E17" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -7965,16 +8013,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E18" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -7991,16 +8039,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E19" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -8017,16 +8065,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E20" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -8043,16 +8091,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E21" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -8069,16 +8117,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E22" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -8095,16 +8143,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E23" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -8121,16 +8169,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E24" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -8147,16 +8195,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E25" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -8173,16 +8221,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E26" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -8199,16 +8247,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E27" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -8225,16 +8273,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E28" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -8251,16 +8299,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E29" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -8277,16 +8325,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E30" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -8303,16 +8351,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="E31" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -8368,16 +8416,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E2" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -8394,16 +8442,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E3" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -8420,16 +8468,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E4" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -8446,16 +8494,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E5" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>508</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -8472,16 +8520,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E6" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -8498,16 +8546,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -8524,16 +8572,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E8" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -8550,16 +8598,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E9" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -8576,16 +8624,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E10" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -8602,16 +8650,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E11" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -8628,16 +8676,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E12" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -8654,16 +8702,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E13" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -8680,16 +8728,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E14" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -8706,16 +8754,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E15" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -8732,16 +8780,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E16" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -8758,16 +8806,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E17" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -8784,16 +8832,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E18" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -8810,16 +8858,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E19" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -8836,16 +8884,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E20" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -8862,16 +8910,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E21" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -8888,16 +8936,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E22" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -8914,16 +8962,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E23" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -8940,16 +8988,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E24" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -8966,16 +9014,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E25" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -8992,16 +9040,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E26" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -9018,16 +9066,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E27" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -9044,16 +9092,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E28" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -9070,16 +9118,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E29" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -9096,16 +9144,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E30" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -9122,16 +9170,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E31" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -9187,16 +9235,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E2" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -9213,16 +9261,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E3" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -9239,16 +9287,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E4" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -9265,16 +9313,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E5" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -9291,16 +9339,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E6" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -9317,16 +9365,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -9343,16 +9391,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E8" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>230</v>
+        <v>564</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -9369,16 +9417,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E9" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -9395,16 +9443,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E10" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -9421,16 +9469,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E11" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -9447,16 +9495,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E12" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -9473,16 +9521,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E13" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -9499,16 +9547,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E14" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -9525,16 +9573,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E15" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -9551,16 +9599,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E16" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -9577,16 +9625,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E17" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -9603,16 +9651,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E18" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -9629,16 +9677,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E19" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -9655,16 +9703,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E20" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -9681,16 +9729,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E21" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -9707,16 +9755,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E22" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -9733,16 +9781,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E23" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -9759,16 +9807,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E24" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -9785,16 +9833,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E25" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -9811,16 +9859,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E26" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -9837,16 +9885,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E27" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -9863,16 +9911,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E28" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -9889,16 +9937,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E29" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -9915,16 +9963,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E30" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -9941,16 +9989,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="E31" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -10006,16 +10054,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E2" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>589</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -10032,16 +10080,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E3" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>589</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -10058,16 +10106,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E4" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>589</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -10084,16 +10132,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E5" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>589</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -10110,16 +10158,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E6" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>590</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -10136,16 +10184,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>209</v>
+        <v>397</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -10162,16 +10210,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E8" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>591</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -10188,16 +10236,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E9" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>243</v>
+        <v>592</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -10214,16 +10262,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E10" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>243</v>
+        <v>592</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -10240,16 +10288,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>592</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -10266,16 +10314,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E12" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -10292,16 +10340,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E13" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -10318,16 +10366,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E14" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -10344,16 +10392,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E15" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -10370,16 +10418,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E16" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -10396,16 +10444,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E17" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -10422,16 +10470,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E18" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -10448,16 +10496,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E19" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -10474,16 +10522,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E20" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>601</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -10500,16 +10548,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E21" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -10526,16 +10574,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E22" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -10552,16 +10600,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E23" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -10578,16 +10626,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E24" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -10604,16 +10652,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E25" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>183</v>
+        <v>606</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -10630,16 +10678,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E26" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -10656,16 +10704,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E27" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -10682,16 +10730,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E28" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -10708,16 +10756,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E29" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -10734,16 +10782,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E30" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -10760,16 +10808,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="E31" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -15852,7 +15900,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -15878,7 +15926,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -15904,7 +15952,7 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -15930,7 +15978,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -15956,7 +16004,7 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -15982,7 +16030,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -16008,7 +16056,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -16034,7 +16082,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -16060,7 +16108,7 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -16086,7 +16134,7 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -16112,7 +16160,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -16138,7 +16186,7 @@
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -16164,7 +16212,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -16190,7 +16238,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -16216,7 +16264,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -16242,7 +16290,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -16268,7 +16316,7 @@
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -16294,7 +16342,7 @@
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -16320,7 +16368,7 @@
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -16346,7 +16394,7 @@
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -16372,7 +16420,7 @@
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -16398,7 +16446,7 @@
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -16424,7 +16472,7 @@
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -16450,7 +16498,7 @@
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -16476,7 +16524,7 @@
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -16502,7 +16550,7 @@
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -16528,7 +16576,7 @@
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -16554,7 +16602,7 @@
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -16580,7 +16628,7 @@
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -16606,7 +16654,7 @@
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -16662,16 +16710,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -16688,16 +16736,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -16714,16 +16762,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -16740,16 +16788,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -16766,16 +16814,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -16792,16 +16840,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -16818,16 +16866,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -16844,16 +16892,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -16870,16 +16918,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -16896,16 +16944,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -16922,16 +16970,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -16948,16 +16996,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -16974,16 +17022,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -17000,16 +17048,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -17026,16 +17074,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -17052,16 +17100,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -17078,16 +17126,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -17104,16 +17152,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -17130,16 +17178,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -17156,16 +17204,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -17182,16 +17230,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -17208,16 +17256,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -17234,16 +17282,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -17260,16 +17308,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -17286,16 +17334,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -17312,16 +17360,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -17338,16 +17386,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -17364,16 +17412,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -17390,16 +17438,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -17416,16 +17464,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -17481,16 +17529,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -17507,16 +17555,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -17533,16 +17581,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -17559,16 +17607,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -17585,16 +17633,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -17611,16 +17659,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -17637,16 +17685,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -17663,16 +17711,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -17689,16 +17737,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E10" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -17715,16 +17763,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E11" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -17741,16 +17789,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -17767,16 +17815,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E13" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -17793,16 +17841,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E14" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -17819,16 +17867,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -17845,16 +17893,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E16" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -17871,16 +17919,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -17897,16 +17945,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E18" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -17923,16 +17971,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E19" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -17949,16 +17997,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E20" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -17975,16 +18023,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E21" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -18001,16 +18049,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E22" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -18027,16 +18075,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -18053,16 +18101,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E24" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -18079,16 +18127,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E25" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -18105,16 +18153,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E26" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -18131,16 +18179,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E27" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -18157,16 +18205,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E28" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -18183,16 +18231,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E29" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -18209,16 +18257,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E30" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -18235,16 +18283,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E31" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -18300,16 +18348,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -18326,16 +18374,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -18352,16 +18400,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -18378,16 +18426,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -18404,16 +18452,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -18430,16 +18478,16 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -18456,16 +18504,16 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E8" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -18482,16 +18530,16 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -18508,16 +18556,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -18534,16 +18582,16 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -18560,16 +18608,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E12" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>348</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -18586,16 +18634,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E13" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -18612,16 +18660,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -18638,16 +18686,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E15" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -18664,16 +18712,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -18690,16 +18738,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E17" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -18716,16 +18764,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E18" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -18742,16 +18790,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E19" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -18768,16 +18816,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E20" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -18794,16 +18842,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E21" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -18820,16 +18868,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E22" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -18846,16 +18894,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E23" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -18872,16 +18920,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E24" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -18898,16 +18946,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E25" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -18924,16 +18972,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E26" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -18950,16 +18998,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E27" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -18976,16 +19024,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E28" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -19002,16 +19050,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -19028,16 +19076,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E30" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -19054,16 +19102,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E31" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>

--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-detail.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5280" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5280" uniqueCount="630">
   <si>
     <t>mesure</t>
   </si>
@@ -804,88 +804,94 @@
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>1267.0</t>
-  </si>
-  <si>
-    <t>1300.0</t>
-  </si>
-  <si>
-    <t>1356.0</t>
-  </si>
-  <si>
-    <t>1453.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>8155.0</t>
-  </si>
-  <si>
-    <t>9723.0</t>
-  </si>
-  <si>
-    <t>12275.0</t>
-  </si>
-  <si>
-    <t>17227.0</t>
-  </si>
-  <si>
-    <t>9881.0</t>
-  </si>
-  <si>
-    <t>11372.0</t>
-  </si>
-  <si>
-    <t>14178.0</t>
-  </si>
-  <si>
-    <t>19090.0</t>
-  </si>
-  <si>
-    <t>10258.0</t>
-  </si>
-  <si>
-    <t>11646.0</t>
-  </si>
-  <si>
-    <t>14278.0</t>
-  </si>
-  <si>
-    <t>19102.0</t>
-  </si>
-  <si>
-    <t>9475.0</t>
-  </si>
-  <si>
-    <t>9971.0</t>
-  </si>
-  <si>
-    <t>12757.0</t>
-  </si>
-  <si>
-    <t>18315.0</t>
-  </si>
-  <si>
-    <t>10984.0</t>
-  </si>
-  <si>
-    <t>12857.0</t>
-  </si>
-  <si>
-    <t>15560.0</t>
-  </si>
-  <si>
-    <t>21724.0</t>
-  </si>
-  <si>
-    <t>10198.0</t>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>8155</t>
+  </si>
+  <si>
+    <t>9723</t>
+  </si>
+  <si>
+    <t>12275</t>
+  </si>
+  <si>
+    <t>17227</t>
+  </si>
+  <si>
+    <t>9881</t>
+  </si>
+  <si>
+    <t>11372</t>
+  </si>
+  <si>
+    <t>14178</t>
+  </si>
+  <si>
+    <t>19090</t>
+  </si>
+  <si>
+    <t>10258</t>
+  </si>
+  <si>
+    <t>11646</t>
+  </si>
+  <si>
+    <t>14278</t>
+  </si>
+  <si>
+    <t>19102</t>
+  </si>
+  <si>
+    <t>9475</t>
+  </si>
+  <si>
+    <t>9971</t>
+  </si>
+  <si>
+    <t>12757</t>
+  </si>
+  <si>
+    <t>18315</t>
+  </si>
+  <si>
+    <t>10984</t>
+  </si>
+  <si>
+    <t>12857</t>
+  </si>
+  <si>
+    <t>15560</t>
+  </si>
+  <si>
+    <t>21724</t>
+  </si>
+  <si>
+    <t>10198</t>
   </si>
   <si>
     <t>24</t>
@@ -894,79 +900,88 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>367.0</t>
-  </si>
-  <si>
-    <t>384.0</t>
-  </si>
-  <si>
-    <t>406.0</t>
-  </si>
-  <si>
-    <t>423.0</t>
-  </si>
-  <si>
-    <t>1931.0</t>
-  </si>
-  <si>
-    <t>2108.0</t>
-  </si>
-  <si>
-    <t>2560.0</t>
-  </si>
-  <si>
-    <t>4263.0</t>
-  </si>
-  <si>
-    <t>2482.0</t>
-  </si>
-  <si>
-    <t>2686.0</t>
-  </si>
-  <si>
-    <t>3459.0</t>
-  </si>
-  <si>
-    <t>4963.0</t>
-  </si>
-  <si>
-    <t>2768.0</t>
-  </si>
-  <si>
-    <t>2997.0</t>
-  </si>
-  <si>
-    <t>3534.0</t>
-  </si>
-  <si>
-    <t>5122.0</t>
-  </si>
-  <si>
-    <t>2472.0</t>
-  </si>
-  <si>
-    <t>2541.0</t>
-  </si>
-  <si>
-    <t>3066.0</t>
-  </si>
-  <si>
-    <t>4853.0</t>
-  </si>
-  <si>
-    <t>2953.0</t>
-  </si>
-  <si>
-    <t>3590.0</t>
-  </si>
-  <si>
-    <t>5307.0</t>
-  </si>
-  <si>
-    <t>2526.0</t>
+    <t>350</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2560</t>
+  </si>
+  <si>
+    <t>4263</t>
+  </si>
+  <si>
+    <t>2482</t>
+  </si>
+  <si>
+    <t>2686</t>
+  </si>
+  <si>
+    <t>3459</t>
+  </si>
+  <si>
+    <t>4963</t>
+  </si>
+  <si>
+    <t>2768</t>
+  </si>
+  <si>
+    <t>2997</t>
+  </si>
+  <si>
+    <t>3534</t>
+  </si>
+  <si>
+    <t>5122</t>
+  </si>
+  <si>
+    <t>2472</t>
+  </si>
+  <si>
+    <t>2541</t>
+  </si>
+  <si>
+    <t>3066</t>
+  </si>
+  <si>
+    <t>4853</t>
+  </si>
+  <si>
+    <t>2953</t>
+  </si>
+  <si>
+    <t>3590</t>
+  </si>
+  <si>
+    <t>5307</t>
+  </si>
+  <si>
+    <t>2526</t>
   </si>
   <si>
     <t>27</t>
@@ -975,88 +990,91 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>405.0</t>
-  </si>
-  <si>
-    <t>422.0</t>
-  </si>
-  <si>
-    <t>437.0</t>
-  </si>
-  <si>
-    <t>446.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>2451.0</t>
-  </si>
-  <si>
-    <t>2843.0</t>
-  </si>
-  <si>
-    <t>3549.0</t>
-  </si>
-  <si>
-    <t>5164.0</t>
-  </si>
-  <si>
-    <t>2947.0</t>
-  </si>
-  <si>
-    <t>3271.0</t>
-  </si>
-  <si>
-    <t>4165.0</t>
-  </si>
-  <si>
-    <t>5757.0</t>
-  </si>
-  <si>
-    <t>3144.0</t>
-  </si>
-  <si>
-    <t>3479.0</t>
-  </si>
-  <si>
-    <t>4285.0</t>
-  </si>
-  <si>
-    <t>5893.0</t>
-  </si>
-  <si>
-    <t>2890.0</t>
-  </si>
-  <si>
-    <t>2983.0</t>
-  </si>
-  <si>
-    <t>3744.0</t>
-  </si>
-  <si>
-    <t>5603.0</t>
-  </si>
-  <si>
-    <t>3092.0</t>
-  </si>
-  <si>
-    <t>3419.0</t>
-  </si>
-  <si>
-    <t>4210.0</t>
-  </si>
-  <si>
-    <t>5959.0</t>
-  </si>
-  <si>
-    <t>2733.0</t>
+    <t>392</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2451</t>
+  </si>
+  <si>
+    <t>2843</t>
+  </si>
+  <si>
+    <t>3549</t>
+  </si>
+  <si>
+    <t>5164</t>
+  </si>
+  <si>
+    <t>2947</t>
+  </si>
+  <si>
+    <t>3271</t>
+  </si>
+  <si>
+    <t>4165</t>
+  </si>
+  <si>
+    <t>5757</t>
+  </si>
+  <si>
+    <t>3144</t>
+  </si>
+  <si>
+    <t>3479</t>
+  </si>
+  <si>
+    <t>4285</t>
+  </si>
+  <si>
+    <t>5893</t>
+  </si>
+  <si>
+    <t>2890</t>
+  </si>
+  <si>
+    <t>2983</t>
+  </si>
+  <si>
+    <t>3744</t>
+  </si>
+  <si>
+    <t>5603</t>
+  </si>
+  <si>
+    <t>3092</t>
+  </si>
+  <si>
+    <t>3419</t>
+  </si>
+  <si>
+    <t>4210</t>
+  </si>
+  <si>
+    <t>5959</t>
+  </si>
+  <si>
+    <t>2733</t>
   </si>
   <si>
     <t>28</t>
@@ -1065,85 +1083,88 @@
     <t>Normandie</t>
   </si>
   <si>
-    <t>395.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>456.0</t>
-  </si>
-  <si>
-    <t>488.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>2817.0</t>
-  </si>
-  <si>
-    <t>3616.0</t>
-  </si>
-  <si>
-    <t>5396.0</t>
-  </si>
-  <si>
-    <t>3122.0</t>
-  </si>
-  <si>
-    <t>3512.0</t>
-  </si>
-  <si>
-    <t>4463.0</t>
-  </si>
-  <si>
-    <t>6262.0</t>
-  </si>
-  <si>
-    <t>3612.0</t>
-  </si>
-  <si>
-    <t>3965.0</t>
-  </si>
-  <si>
-    <t>4884.0</t>
-  </si>
-  <si>
-    <t>6575.0</t>
-  </si>
-  <si>
-    <t>3299.0</t>
-  </si>
-  <si>
-    <t>3424.0</t>
-  </si>
-  <si>
-    <t>4309.0</t>
-  </si>
-  <si>
-    <t>6327.0</t>
-  </si>
-  <si>
-    <t>3488.0</t>
-  </si>
-  <si>
-    <t>3823.0</t>
-  </si>
-  <si>
-    <t>4773.0</t>
-  </si>
-  <si>
-    <t>7072.0</t>
-  </si>
-  <si>
-    <t>3546.0</t>
+    <t>395</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2468</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>3616</t>
+  </si>
+  <si>
+    <t>5396</t>
+  </si>
+  <si>
+    <t>3122</t>
+  </si>
+  <si>
+    <t>3512</t>
+  </si>
+  <si>
+    <t>4463</t>
+  </si>
+  <si>
+    <t>6262</t>
+  </si>
+  <si>
+    <t>3612</t>
+  </si>
+  <si>
+    <t>3965</t>
+  </si>
+  <si>
+    <t>4884</t>
+  </si>
+  <si>
+    <t>6575</t>
+  </si>
+  <si>
+    <t>3299</t>
+  </si>
+  <si>
+    <t>3424</t>
+  </si>
+  <si>
+    <t>4309</t>
+  </si>
+  <si>
+    <t>6327</t>
+  </si>
+  <si>
+    <t>3488</t>
+  </si>
+  <si>
+    <t>3823</t>
+  </si>
+  <si>
+    <t>4773</t>
+  </si>
+  <si>
+    <t>7072</t>
+  </si>
+  <si>
+    <t>3546</t>
   </si>
   <si>
     <t>32</t>
@@ -1152,82 +1173,88 @@
     <t>Hauts-de-France</t>
   </si>
   <si>
-    <t>949.0</t>
-  </si>
-  <si>
-    <t>986.0</t>
-  </si>
-  <si>
-    <t>1005.0</t>
-  </si>
-  <si>
-    <t>1030.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>6106.0</t>
-  </si>
-  <si>
-    <t>7248.0</t>
-  </si>
-  <si>
-    <t>8909.0</t>
-  </si>
-  <si>
-    <t>13409.0</t>
-  </si>
-  <si>
-    <t>8056.0</t>
-  </si>
-  <si>
-    <t>9176.0</t>
-  </si>
-  <si>
-    <t>11193.0</t>
-  </si>
-  <si>
-    <t>15929.0</t>
-  </si>
-  <si>
-    <t>8592.0</t>
-  </si>
-  <si>
-    <t>9728.0</t>
-  </si>
-  <si>
-    <t>11682.0</t>
-  </si>
-  <si>
-    <t>15830.0</t>
-  </si>
-  <si>
-    <t>7656.0</t>
-  </si>
-  <si>
-    <t>7961.0</t>
-  </si>
-  <si>
-    <t>10070.0</t>
-  </si>
-  <si>
-    <t>15398.0</t>
-  </si>
-  <si>
-    <t>8872.0</t>
-  </si>
-  <si>
-    <t>10097.0</t>
-  </si>
-  <si>
-    <t>12323.0</t>
-  </si>
-  <si>
-    <t>18403.0</t>
-  </si>
-  <si>
-    <t>8893.0</t>
+    <t>938</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>6106</t>
+  </si>
+  <si>
+    <t>7248</t>
+  </si>
+  <si>
+    <t>8909</t>
+  </si>
+  <si>
+    <t>13409</t>
+  </si>
+  <si>
+    <t>8056</t>
+  </si>
+  <si>
+    <t>9176</t>
+  </si>
+  <si>
+    <t>11193</t>
+  </si>
+  <si>
+    <t>15929</t>
+  </si>
+  <si>
+    <t>8592</t>
+  </si>
+  <si>
+    <t>9728</t>
+  </si>
+  <si>
+    <t>11682</t>
+  </si>
+  <si>
+    <t>15830</t>
+  </si>
+  <si>
+    <t>7656</t>
+  </si>
+  <si>
+    <t>7961</t>
+  </si>
+  <si>
+    <t>10070</t>
+  </si>
+  <si>
+    <t>15398</t>
+  </si>
+  <si>
+    <t>8872</t>
+  </si>
+  <si>
+    <t>10097</t>
+  </si>
+  <si>
+    <t>12323</t>
+  </si>
+  <si>
+    <t>18403</t>
+  </si>
+  <si>
+    <t>8893</t>
   </si>
   <si>
     <t>44</t>
@@ -1236,88 +1263,88 @@
     <t>Grand Est</t>
   </si>
   <si>
-    <t>845.0</t>
-  </si>
-  <si>
-    <t>874.0</t>
-  </si>
-  <si>
-    <t>924.0</t>
-  </si>
-  <si>
-    <t>996.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>4547.0</t>
-  </si>
-  <si>
-    <t>5276.0</t>
-  </si>
-  <si>
-    <t>6517.0</t>
-  </si>
-  <si>
-    <t>9856.0</t>
-  </si>
-  <si>
-    <t>5812.0</t>
-  </si>
-  <si>
-    <t>6550.0</t>
-  </si>
-  <si>
-    <t>8089.0</t>
-  </si>
-  <si>
-    <t>11288.0</t>
-  </si>
-  <si>
-    <t>6125.0</t>
-  </si>
-  <si>
-    <t>6799.0</t>
-  </si>
-  <si>
-    <t>8137.0</t>
-  </si>
-  <si>
-    <t>11416.0</t>
-  </si>
-  <si>
-    <t>5501.0</t>
-  </si>
-  <si>
-    <t>5732.0</t>
-  </si>
-  <si>
-    <t>6982.0</t>
-  </si>
-  <si>
-    <t>10560.0</t>
-  </si>
-  <si>
-    <t>5788.0</t>
-  </si>
-  <si>
-    <t>6491.0</t>
-  </si>
-  <si>
-    <t>7777.0</t>
-  </si>
-  <si>
-    <t>11163.0</t>
-  </si>
-  <si>
-    <t>5096.0</t>
+    <t>815</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>874</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>4547</t>
+  </si>
+  <si>
+    <t>5276</t>
+  </si>
+  <si>
+    <t>6517</t>
+  </si>
+  <si>
+    <t>9856</t>
+  </si>
+  <si>
+    <t>5812</t>
+  </si>
+  <si>
+    <t>6550</t>
+  </si>
+  <si>
+    <t>8089</t>
+  </si>
+  <si>
+    <t>11288</t>
+  </si>
+  <si>
+    <t>6125</t>
+  </si>
+  <si>
+    <t>6799</t>
+  </si>
+  <si>
+    <t>8137</t>
+  </si>
+  <si>
+    <t>11416</t>
+  </si>
+  <si>
+    <t>5501</t>
+  </si>
+  <si>
+    <t>5732</t>
+  </si>
+  <si>
+    <t>6982</t>
+  </si>
+  <si>
+    <t>10560</t>
+  </si>
+  <si>
+    <t>5788</t>
+  </si>
+  <si>
+    <t>6491</t>
+  </si>
+  <si>
+    <t>7777</t>
+  </si>
+  <si>
+    <t>11163</t>
+  </si>
+  <si>
+    <t>5096</t>
   </si>
   <si>
     <t>52</t>
@@ -1326,79 +1353,79 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
-    <t>427.0</t>
-  </si>
-  <si>
-    <t>426.0</t>
-  </si>
-  <si>
-    <t>434.0</t>
-  </si>
-  <si>
-    <t>443.0</t>
-  </si>
-  <si>
-    <t>460.0</t>
-  </si>
-  <si>
-    <t>2864.0</t>
-  </si>
-  <si>
-    <t>3168.0</t>
-  </si>
-  <si>
-    <t>3883.0</t>
-  </si>
-  <si>
-    <t>5879.0</t>
-  </si>
-  <si>
-    <t>3342.0</t>
-  </si>
-  <si>
-    <t>3645.0</t>
-  </si>
-  <si>
-    <t>4589.0</t>
-  </si>
-  <si>
-    <t>6563.0</t>
-  </si>
-  <si>
-    <t>3669.0</t>
-  </si>
-  <si>
-    <t>3969.0</t>
-  </si>
-  <si>
-    <t>4827.0</t>
-  </si>
-  <si>
-    <t>6758.0</t>
-  </si>
-  <si>
-    <t>3448.0</t>
-  </si>
-  <si>
-    <t>4334.0</t>
-  </si>
-  <si>
-    <t>6504.0</t>
-  </si>
-  <si>
-    <t>3560.0</t>
-  </si>
-  <si>
-    <t>3860.0</t>
-  </si>
-  <si>
-    <t>4705.0</t>
-  </si>
-  <si>
-    <t>6682.0</t>
-  </si>
-  <si>
-    <t>3183.0</t>
+    <t>427</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>2864</t>
+  </si>
+  <si>
+    <t>3168</t>
+  </si>
+  <si>
+    <t>3883</t>
+  </si>
+  <si>
+    <t>5879</t>
+  </si>
+  <si>
+    <t>3342</t>
+  </si>
+  <si>
+    <t>3645</t>
+  </si>
+  <si>
+    <t>4589</t>
+  </si>
+  <si>
+    <t>6563</t>
+  </si>
+  <si>
+    <t>3669</t>
+  </si>
+  <si>
+    <t>3969</t>
+  </si>
+  <si>
+    <t>4827</t>
+  </si>
+  <si>
+    <t>6758</t>
+  </si>
+  <si>
+    <t>3448</t>
+  </si>
+  <si>
+    <t>4334</t>
+  </si>
+  <si>
+    <t>6504</t>
+  </si>
+  <si>
+    <t>3560</t>
+  </si>
+  <si>
+    <t>3860</t>
+  </si>
+  <si>
+    <t>4705</t>
+  </si>
+  <si>
+    <t>6682</t>
+  </si>
+  <si>
+    <t>3183</t>
   </si>
   <si>
     <t>53</t>
@@ -1407,79 +1434,79 @@
     <t>Bretagne</t>
   </si>
   <si>
-    <t>333.0</t>
-  </si>
-  <si>
-    <t>345.0</t>
-  </si>
-  <si>
-    <t>349.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>373.0</t>
-  </si>
-  <si>
-    <t>1914.0</t>
-  </si>
-  <si>
-    <t>2217.0</t>
-  </si>
-  <si>
-    <t>2878.0</t>
-  </si>
-  <si>
-    <t>4138.0</t>
-  </si>
-  <si>
-    <t>2408.0</t>
-  </si>
-  <si>
-    <t>2664.0</t>
-  </si>
-  <si>
-    <t>3412.0</t>
-  </si>
-  <si>
-    <t>4795.0</t>
-  </si>
-  <si>
-    <t>2670.0</t>
-  </si>
-  <si>
-    <t>2972.0</t>
-  </si>
-  <si>
-    <t>3550.0</t>
-  </si>
-  <si>
-    <t>4973.0</t>
-  </si>
-  <si>
-    <t>2474.0</t>
-  </si>
-  <si>
-    <t>3162.0</t>
-  </si>
-  <si>
-    <t>4702.0</t>
-  </si>
-  <si>
-    <t>2569.0</t>
-  </si>
-  <si>
-    <t>2863.0</t>
-  </si>
-  <si>
-    <t>3587.0</t>
-  </si>
-  <si>
-    <t>5027.0</t>
-  </si>
-  <si>
-    <t>2406.0</t>
+    <t>333</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>2217</t>
+  </si>
+  <si>
+    <t>2878</t>
+  </si>
+  <si>
+    <t>4138</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2664</t>
+  </si>
+  <si>
+    <t>3412</t>
+  </si>
+  <si>
+    <t>4795</t>
+  </si>
+  <si>
+    <t>2670</t>
+  </si>
+  <si>
+    <t>2972</t>
+  </si>
+  <si>
+    <t>3550</t>
+  </si>
+  <si>
+    <t>4973</t>
+  </si>
+  <si>
+    <t>2474</t>
+  </si>
+  <si>
+    <t>3162</t>
+  </si>
+  <si>
+    <t>4702</t>
+  </si>
+  <si>
+    <t>2569</t>
+  </si>
+  <si>
+    <t>2863</t>
+  </si>
+  <si>
+    <t>3587</t>
+  </si>
+  <si>
+    <t>5027</t>
+  </si>
+  <si>
+    <t>2406</t>
   </si>
   <si>
     <t>75</t>
@@ -1488,76 +1515,76 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
-    <t>752.0</t>
-  </si>
-  <si>
-    <t>781.0</t>
-  </si>
-  <si>
-    <t>790.0</t>
-  </si>
-  <si>
-    <t>810.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>5456.0</t>
-  </si>
-  <si>
-    <t>6256.0</t>
-  </si>
-  <si>
-    <t>7641.0</t>
-  </si>
-  <si>
-    <t>11290.0</t>
-  </si>
-  <si>
-    <t>6564.0</t>
-  </si>
-  <si>
-    <t>7310.0</t>
-  </si>
-  <si>
-    <t>8971.0</t>
-  </si>
-  <si>
-    <t>13036.0</t>
-  </si>
-  <si>
-    <t>7174.0</t>
-  </si>
-  <si>
-    <t>7943.0</t>
-  </si>
-  <si>
-    <t>9633.0</t>
-  </si>
-  <si>
-    <t>12790.0</t>
-  </si>
-  <si>
-    <t>6408.0</t>
-  </si>
-  <si>
-    <t>6666.0</t>
-  </si>
-  <si>
-    <t>8083.0</t>
-  </si>
-  <si>
-    <t>12091.0</t>
-  </si>
-  <si>
-    <t>6539.0</t>
-  </si>
-  <si>
-    <t>8783.0</t>
-  </si>
-  <si>
-    <t>12778.0</t>
+    <t>752</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>5456</t>
+  </si>
+  <si>
+    <t>6256</t>
+  </si>
+  <si>
+    <t>7641</t>
+  </si>
+  <si>
+    <t>11290</t>
+  </si>
+  <si>
+    <t>6564</t>
+  </si>
+  <si>
+    <t>7310</t>
+  </si>
+  <si>
+    <t>8971</t>
+  </si>
+  <si>
+    <t>13036</t>
+  </si>
+  <si>
+    <t>7174</t>
+  </si>
+  <si>
+    <t>7943</t>
+  </si>
+  <si>
+    <t>9633</t>
+  </si>
+  <si>
+    <t>12790</t>
+  </si>
+  <si>
+    <t>6408</t>
+  </si>
+  <si>
+    <t>6666</t>
+  </si>
+  <si>
+    <t>8083</t>
+  </si>
+  <si>
+    <t>12091</t>
+  </si>
+  <si>
+    <t>6539</t>
+  </si>
+  <si>
+    <t>8783</t>
+  </si>
+  <si>
+    <t>12778</t>
   </si>
   <si>
     <t>76</t>
@@ -1566,88 +1593,91 @@
     <t>Occitanie</t>
   </si>
   <si>
-    <t>700.0</t>
-  </si>
-  <si>
-    <t>745.0</t>
-  </si>
-  <si>
-    <t>791.0</t>
-  </si>
-  <si>
-    <t>836.0</t>
-  </si>
-  <si>
-    <t>886.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>5285.0</t>
-  </si>
-  <si>
-    <t>6105.0</t>
-  </si>
-  <si>
-    <t>7554.0</t>
-  </si>
-  <si>
-    <t>11737.0</t>
-  </si>
-  <si>
-    <t>6790.0</t>
-  </si>
-  <si>
-    <t>7658.0</t>
-  </si>
-  <si>
-    <t>9184.0</t>
-  </si>
-  <si>
-    <t>13594.0</t>
-  </si>
-  <si>
-    <t>7481.0</t>
-  </si>
-  <si>
-    <t>8314.0</t>
-  </si>
-  <si>
-    <t>9826.0</t>
-  </si>
-  <si>
-    <t>13291.0</t>
-  </si>
-  <si>
-    <t>6204.0</t>
-  </si>
-  <si>
-    <t>6493.0</t>
-  </si>
-  <si>
-    <t>8030.0</t>
-  </si>
-  <si>
-    <t>12072.0</t>
-  </si>
-  <si>
-    <t>6728.0</t>
-  </si>
-  <si>
-    <t>7635.0</t>
-  </si>
-  <si>
-    <t>9251.0</t>
-  </si>
-  <si>
-    <t>13459.0</t>
-  </si>
-  <si>
-    <t>6383.0</t>
+    <t>700</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>5285</t>
+  </si>
+  <si>
+    <t>6105</t>
+  </si>
+  <si>
+    <t>7554</t>
+  </si>
+  <si>
+    <t>11737</t>
+  </si>
+  <si>
+    <t>6790</t>
+  </si>
+  <si>
+    <t>7658</t>
+  </si>
+  <si>
+    <t>9184</t>
+  </si>
+  <si>
+    <t>13594</t>
+  </si>
+  <si>
+    <t>7481</t>
+  </si>
+  <si>
+    <t>8314</t>
+  </si>
+  <si>
+    <t>9826</t>
+  </si>
+  <si>
+    <t>13291</t>
+  </si>
+  <si>
+    <t>6204</t>
+  </si>
+  <si>
+    <t>6493</t>
+  </si>
+  <si>
+    <t>8030</t>
+  </si>
+  <si>
+    <t>12072</t>
+  </si>
+  <si>
+    <t>6728</t>
+  </si>
+  <si>
+    <t>7635</t>
+  </si>
+  <si>
+    <t>9251</t>
+  </si>
+  <si>
+    <t>13459</t>
+  </si>
+  <si>
+    <t>6383</t>
   </si>
   <si>
     <t>84</t>
@@ -1656,82 +1686,82 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>1055.0</t>
-  </si>
-  <si>
-    <t>1094.0</t>
-  </si>
-  <si>
-    <t>1127.0</t>
-  </si>
-  <si>
-    <t>1187.0</t>
-  </si>
-  <si>
-    <t>1248.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>5243.0</t>
-  </si>
-  <si>
-    <t>5900.0</t>
-  </si>
-  <si>
-    <t>11196.0</t>
-  </si>
-  <si>
-    <t>6649.0</t>
-  </si>
-  <si>
-    <t>7282.0</t>
-  </si>
-  <si>
-    <t>9411.0</t>
-  </si>
-  <si>
-    <t>13241.0</t>
-  </si>
-  <si>
-    <t>7294.0</t>
-  </si>
-  <si>
-    <t>7994.0</t>
-  </si>
-  <si>
-    <t>10007.0</t>
-  </si>
-  <si>
-    <t>13273.0</t>
-  </si>
-  <si>
-    <t>6475.0</t>
-  </si>
-  <si>
-    <t>6675.0</t>
-  </si>
-  <si>
-    <t>8330.0</t>
-  </si>
-  <si>
-    <t>12055.0</t>
-  </si>
-  <si>
-    <t>6630.0</t>
-  </si>
-  <si>
-    <t>7321.0</t>
-  </si>
-  <si>
-    <t>9084.0</t>
-  </si>
-  <si>
-    <t>12595.0</t>
-  </si>
-  <si>
-    <t>5980.0</t>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>1094</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1187</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>5243</t>
+  </si>
+  <si>
+    <t>5900</t>
+  </si>
+  <si>
+    <t>11196</t>
+  </si>
+  <si>
+    <t>6649</t>
+  </si>
+  <si>
+    <t>7282</t>
+  </si>
+  <si>
+    <t>9411</t>
+  </si>
+  <si>
+    <t>13241</t>
+  </si>
+  <si>
+    <t>7294</t>
+  </si>
+  <si>
+    <t>7994</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>13273</t>
+  </si>
+  <si>
+    <t>6475</t>
+  </si>
+  <si>
+    <t>6675</t>
+  </si>
+  <si>
+    <t>8330</t>
+  </si>
+  <si>
+    <t>12055</t>
+  </si>
+  <si>
+    <t>6630</t>
+  </si>
+  <si>
+    <t>7321</t>
+  </si>
+  <si>
+    <t>9084</t>
+  </si>
+  <si>
+    <t>12595</t>
+  </si>
+  <si>
+    <t>5980</t>
   </si>
   <si>
     <t>93</t>
@@ -1740,76 +1770,79 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
-    <t>578.0</t>
-  </si>
-  <si>
-    <t>629.0</t>
-  </si>
-  <si>
-    <t>653.0</t>
-  </si>
-  <si>
-    <t>685.0</t>
-  </si>
-  <si>
-    <t>4783.0</t>
-  </si>
-  <si>
-    <t>5477.0</t>
-  </si>
-  <si>
-    <t>6621.0</t>
-  </si>
-  <si>
-    <t>9525.0</t>
-  </si>
-  <si>
-    <t>5310.0</t>
-  </si>
-  <si>
-    <t>6021.0</t>
-  </si>
-  <si>
-    <t>7207.0</t>
-  </si>
-  <si>
-    <t>10051.0</t>
-  </si>
-  <si>
-    <t>5329.0</t>
-  </si>
-  <si>
-    <t>6060.0</t>
-  </si>
-  <si>
-    <t>7231.0</t>
-  </si>
-  <si>
-    <t>9667.0</t>
-  </si>
-  <si>
-    <t>4569.0</t>
-  </si>
-  <si>
-    <t>4766.0</t>
-  </si>
-  <si>
-    <t>5914.0</t>
-  </si>
-  <si>
-    <t>8676.0</t>
-  </si>
-  <si>
-    <t>4728.0</t>
-  </si>
-  <si>
-    <t>5522.0</t>
-  </si>
-  <si>
-    <t>9107.0</t>
-  </si>
-  <si>
-    <t>4218.0</t>
+    <t>578</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>4783</t>
+  </si>
+  <si>
+    <t>5477</t>
+  </si>
+  <si>
+    <t>6621</t>
+  </si>
+  <si>
+    <t>9525</t>
+  </si>
+  <si>
+    <t>5310</t>
+  </si>
+  <si>
+    <t>6021</t>
+  </si>
+  <si>
+    <t>7207</t>
+  </si>
+  <si>
+    <t>10051</t>
+  </si>
+  <si>
+    <t>5329</t>
+  </si>
+  <si>
+    <t>6060</t>
+  </si>
+  <si>
+    <t>7231</t>
+  </si>
+  <si>
+    <t>9667</t>
+  </si>
+  <si>
+    <t>4569</t>
+  </si>
+  <si>
+    <t>4766</t>
+  </si>
+  <si>
+    <t>5914</t>
+  </si>
+  <si>
+    <t>8676</t>
+  </si>
+  <si>
+    <t>4728</t>
+  </si>
+  <si>
+    <t>5522</t>
+  </si>
+  <si>
+    <t>9107</t>
+  </si>
+  <si>
+    <t>4218</t>
   </si>
   <si>
     <t>94</t>
@@ -1818,58 +1851,76 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>176.0</t>
-  </si>
-  <si>
-    <t>233.0</t>
-  </si>
-  <si>
-    <t>261.0</t>
-  </si>
-  <si>
-    <t>459.0</t>
-  </si>
-  <si>
-    <t>264.0</t>
-  </si>
-  <si>
-    <t>316.0</t>
-  </si>
-  <si>
-    <t>374.0</t>
-  </si>
-  <si>
-    <t>511.0</t>
-  </si>
-  <si>
-    <t>254.0</t>
-  </si>
-  <si>
-    <t>297.0</t>
-  </si>
-  <si>
-    <t>433.0</t>
-  </si>
-  <si>
-    <t>222.0</t>
-  </si>
-  <si>
-    <t>275.0</t>
-  </si>
-  <si>
-    <t>227.0</t>
-  </si>
-  <si>
-    <t>272.0</t>
-  </si>
-  <si>
-    <t>324.0</t>
-  </si>
-  <si>
-    <t>472.0</t>
-  </si>
-  <si>
-    <t>213.0</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>213</t>
   </si>
 </sst>
 </file>
@@ -3531,16 +3582,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>380</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -3557,16 +3608,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E3" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3583,16 +3634,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3609,16 +3660,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E5" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3635,16 +3686,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -3661,16 +3712,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -3687,16 +3738,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E8" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -3713,16 +3764,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E9" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -3739,16 +3790,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E10" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -3765,16 +3816,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E11" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -3791,16 +3842,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E12" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -3817,16 +3868,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E13" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -3843,16 +3894,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E14" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -3869,16 +3920,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E15" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -3895,16 +3946,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E16" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -3921,16 +3972,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -3947,16 +3998,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E18" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -3973,16 +4024,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E19" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -3999,16 +4050,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E20" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -4025,16 +4076,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E21" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -4051,16 +4102,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E22" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -4077,16 +4128,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E23" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -4103,16 +4154,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E24" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -4129,16 +4180,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E25" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -4155,16 +4206,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E26" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -4181,16 +4232,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E27" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -4207,16 +4258,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E28" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -4233,16 +4284,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E29" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -4259,16 +4310,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E30" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -4285,16 +4336,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E31" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -4311,16 +4362,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E32" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -4376,16 +4427,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>410</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -4402,16 +4453,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E3" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -4428,16 +4479,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E4" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -4454,16 +4505,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E5" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -4480,16 +4531,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E6" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -4506,16 +4557,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -4532,16 +4583,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E8" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -4558,16 +4609,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E9" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -4584,16 +4635,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E10" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>406</v>
+        <v>287</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -4610,16 +4661,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -4636,16 +4687,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E12" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -4662,16 +4713,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E13" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -4688,16 +4739,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E14" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -4714,16 +4765,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -4740,16 +4791,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E16" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -4766,16 +4817,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E17" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -4792,16 +4843,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E18" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -4818,16 +4869,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E19" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -4844,16 +4895,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E20" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -4870,16 +4921,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E21" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -4896,16 +4947,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E22" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -4922,16 +4973,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E23" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -4948,16 +4999,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E24" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -4974,16 +5025,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E25" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -5000,16 +5051,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E26" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -5026,16 +5077,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E27" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -5052,16 +5103,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E28" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -5078,16 +5129,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E29" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -5104,16 +5155,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E30" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -5130,16 +5181,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E31" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -5156,16 +5207,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E32" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -5221,16 +5272,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -5247,16 +5298,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -5273,16 +5324,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -5299,16 +5350,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E5" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -5325,16 +5376,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E6" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -5351,16 +5402,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -5377,16 +5428,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -5403,16 +5454,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E9" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -5429,16 +5480,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E10" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -5455,16 +5506,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -5481,16 +5532,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E12" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -5507,16 +5558,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E13" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -5533,16 +5584,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -5559,16 +5610,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E15" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -5585,16 +5636,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E16" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -5611,16 +5662,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E17" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -5637,16 +5688,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E18" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -5663,16 +5714,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E19" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -5689,16 +5740,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E20" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -5715,16 +5766,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E21" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -5741,16 +5792,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E22" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -5767,16 +5818,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E23" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -5793,16 +5844,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E24" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -5819,16 +5870,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E25" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -5845,16 +5896,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E26" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -5871,16 +5922,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E27" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -5897,16 +5948,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E28" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -5923,16 +5974,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E29" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -5949,16 +6000,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E30" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -5975,16 +6026,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E31" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -6001,16 +6052,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E32" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -6066,16 +6117,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E2" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6092,16 +6143,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E3" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6118,16 +6169,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E4" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6144,16 +6195,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6170,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E6" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -6196,16 +6247,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -6222,16 +6273,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E8" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -6248,16 +6299,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E9" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -6274,16 +6325,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E10" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -6300,16 +6351,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E11" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -6326,16 +6377,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E12" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -6352,16 +6403,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E13" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -6378,16 +6429,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E14" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -6404,16 +6455,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E15" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -6430,16 +6481,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E16" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -6456,16 +6507,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E17" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -6482,16 +6533,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E18" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -6508,16 +6559,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E19" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -6534,16 +6585,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E20" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -6560,16 +6611,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E21" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -6586,16 +6637,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E22" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -6612,16 +6663,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E23" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -6638,16 +6689,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E24" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -6664,16 +6715,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E25" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -6690,16 +6741,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E26" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -6716,16 +6767,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E27" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -6742,16 +6793,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E28" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -6768,16 +6819,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E29" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -6794,16 +6845,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E30" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -6820,16 +6871,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E31" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -6846,16 +6897,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="E32" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -6911,16 +6962,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -6937,16 +6988,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E3" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6963,16 +7014,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E4" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6989,16 +7040,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E5" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -7015,16 +7066,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E6" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -7041,16 +7092,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -7067,16 +7118,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E8" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -7093,16 +7144,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -7119,16 +7170,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E10" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -7145,16 +7196,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E11" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -7171,16 +7222,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E12" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -7197,16 +7248,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E13" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -7223,16 +7274,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E14" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -7249,16 +7300,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E15" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -7275,16 +7326,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E16" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -7301,16 +7352,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E17" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -7327,16 +7378,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E18" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -7353,16 +7404,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E19" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -7379,16 +7430,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E20" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -7405,16 +7456,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E21" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -7431,16 +7482,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E22" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -7457,16 +7508,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E23" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -7483,16 +7534,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E24" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -7509,16 +7560,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E25" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -7535,16 +7586,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E26" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -7561,16 +7612,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E27" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -7587,16 +7638,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -7613,16 +7664,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E29" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -7639,16 +7690,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E30" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -7665,16 +7716,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E31" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -7691,16 +7742,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="E32" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -7756,16 +7807,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E2" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -7782,16 +7833,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E3" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -7808,16 +7859,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E4" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -7834,16 +7885,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E5" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -7860,16 +7911,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E6" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -7886,16 +7937,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -7912,16 +7963,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E8" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -7938,16 +7989,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E9" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -7964,16 +8015,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E10" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -7990,16 +8041,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E11" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>527</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -8016,16 +8067,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E12" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -8042,16 +8093,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E13" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -8068,16 +8119,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E14" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -8094,16 +8145,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -8120,16 +8171,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E16" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -8146,16 +8197,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E17" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -8172,16 +8223,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E18" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -8198,16 +8249,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E19" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -8224,16 +8275,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E20" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -8250,16 +8301,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E21" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -8276,16 +8327,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E22" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -8302,16 +8353,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E23" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -8328,16 +8379,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E24" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -8354,16 +8405,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E25" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -8380,16 +8431,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E26" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -8406,16 +8457,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E27" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -8432,16 +8483,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E28" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -8458,16 +8509,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E29" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -8484,16 +8535,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E30" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -8510,16 +8561,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E31" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -8536,16 +8587,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="E32" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -8601,16 +8652,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E2" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -8627,16 +8678,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E3" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -8653,16 +8704,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E4" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -8679,16 +8730,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E5" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -8705,16 +8756,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E6" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -8731,16 +8782,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -8757,16 +8808,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E8" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -8783,16 +8834,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E9" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -8809,16 +8860,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E10" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>527</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -8835,16 +8886,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E11" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -8861,16 +8912,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E12" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -8887,16 +8938,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E13" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -8913,16 +8964,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E14" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -8939,16 +8990,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E15" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -8965,16 +9016,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E16" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -8991,16 +9042,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E17" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -9017,16 +9068,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E18" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -9043,16 +9094,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E19" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -9069,16 +9120,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E20" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -9095,16 +9146,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E21" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -9121,16 +9172,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E22" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -9147,16 +9198,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E23" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -9173,16 +9224,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E24" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -9199,16 +9250,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E25" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -9225,16 +9276,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E26" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -9251,16 +9302,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E27" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -9277,16 +9328,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E28" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -9303,16 +9354,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E29" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -9329,16 +9380,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E30" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -9355,16 +9406,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E31" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -9381,16 +9432,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E32" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -9446,16 +9497,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E2" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -9472,16 +9523,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E3" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>235</v>
+        <v>580</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -9498,16 +9549,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E4" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -9524,16 +9575,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E5" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -9550,16 +9601,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E6" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -9576,16 +9627,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -9602,16 +9653,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E8" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -9628,16 +9679,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E9" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -9654,16 +9705,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E10" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -9680,16 +9731,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E11" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -9706,16 +9757,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E12" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -9732,16 +9783,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E13" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -9758,16 +9809,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E14" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -9784,16 +9835,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E15" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -9810,16 +9861,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E16" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -9836,16 +9887,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E17" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -9862,16 +9913,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E18" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -9888,16 +9939,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E19" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -9914,16 +9965,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E20" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -9940,16 +9991,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E21" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -9966,16 +10017,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E22" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -9992,16 +10043,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E23" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -10018,16 +10069,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E24" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -10044,16 +10095,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E25" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -10070,16 +10121,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E26" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -10096,16 +10147,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E27" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -10122,16 +10173,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E28" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -10148,16 +10199,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E29" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -10174,16 +10225,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E30" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -10200,16 +10251,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E31" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -10226,16 +10277,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E32" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -10291,16 +10342,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E2" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>408</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -10317,16 +10368,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E3" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>606</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -10343,16 +10394,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E4" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>249</v>
+        <v>607</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -10369,16 +10420,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E5" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>607</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -10395,16 +10446,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E6" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>249</v>
+        <v>607</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -10421,16 +10472,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>608</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -10447,16 +10498,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E8" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>608</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -10473,16 +10524,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E9" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>608</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -10499,16 +10550,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E10" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>608</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -10525,16 +10576,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E11" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>609</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -10551,16 +10602,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E12" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -10577,16 +10628,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E13" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -10603,16 +10654,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E14" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -10629,16 +10680,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E15" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -10655,16 +10706,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E16" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -10681,16 +10732,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E17" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -10707,16 +10758,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E18" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -10733,16 +10784,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E19" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -10759,16 +10810,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E20" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>618</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -10785,16 +10836,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E21" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -10811,16 +10862,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E22" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -10837,16 +10888,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E23" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -10863,16 +10914,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E24" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -10889,16 +10940,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E25" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>186</v>
+        <v>623</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -10915,16 +10966,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E26" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -10941,16 +10992,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E27" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -10967,16 +11018,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E28" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -10993,16 +11044,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E29" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -11019,16 +11070,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E30" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -11045,16 +11096,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E31" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -11071,16 +11122,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E32" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -16345,7 +16396,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -16371,7 +16422,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -16397,7 +16448,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -16475,7 +16526,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -16501,7 +16552,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -16527,7 +16578,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -16553,7 +16604,7 @@
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -16579,7 +16630,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -16605,7 +16656,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -16631,7 +16682,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -16657,7 +16708,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -16683,7 +16734,7 @@
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -16709,7 +16760,7 @@
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -16735,7 +16786,7 @@
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -16761,7 +16812,7 @@
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -16787,7 +16838,7 @@
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -16813,7 +16864,7 @@
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -16839,7 +16890,7 @@
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -16865,7 +16916,7 @@
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -16891,7 +16942,7 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -16917,7 +16968,7 @@
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -16943,7 +16994,7 @@
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -16969,7 +17020,7 @@
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -16995,7 +17046,7 @@
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -17021,7 +17072,7 @@
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -17047,7 +17098,7 @@
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -17103,16 +17154,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -17129,16 +17180,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -17155,16 +17206,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -17181,16 +17232,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -17207,16 +17258,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -17233,16 +17284,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -17259,16 +17310,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -17285,16 +17336,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -17311,10 +17362,10 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -17337,16 +17388,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -17363,16 +17414,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E12" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -17389,16 +17440,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -17415,16 +17466,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -17441,16 +17492,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -17467,16 +17518,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -17493,16 +17544,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -17519,16 +17570,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -17545,16 +17596,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -17571,16 +17622,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -17597,16 +17648,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -17623,16 +17674,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E22" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -17649,16 +17700,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E23" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -17675,16 +17726,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -17701,16 +17752,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E25" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -17727,16 +17778,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -17753,16 +17804,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -17779,16 +17830,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -17805,16 +17856,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E29" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -17831,16 +17882,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -17857,16 +17908,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E31" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -17883,16 +17934,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E32" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -17948,16 +17999,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -17974,16 +18025,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -18000,16 +18051,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -18026,16 +18077,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E5" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -18052,16 +18103,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -18078,16 +18129,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -18104,16 +18155,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -18130,16 +18181,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -18156,16 +18207,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -18182,16 +18233,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E11" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -18208,16 +18259,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E12" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -18234,16 +18285,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E13" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -18260,16 +18311,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -18286,16 +18337,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E15" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -18312,16 +18363,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E16" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -18338,16 +18389,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E17" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -18364,16 +18415,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E18" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -18390,16 +18441,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E19" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -18416,16 +18467,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E20" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -18442,16 +18493,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E21" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -18468,16 +18519,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E22" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -18494,16 +18545,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E23" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -18520,16 +18571,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E24" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -18546,16 +18597,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E25" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -18572,16 +18623,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E26" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -18598,16 +18649,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E27" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -18624,16 +18675,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E28" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -18650,16 +18701,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E29" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -18676,16 +18727,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E30" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -18702,16 +18753,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E31" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -18728,16 +18779,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E32" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
@@ -18793,16 +18844,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -18819,16 +18870,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -18845,16 +18896,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -18871,16 +18922,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -18897,16 +18948,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E6" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -18923,16 +18974,16 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -18949,16 +19000,16 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E8" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -18975,16 +19026,16 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -19001,16 +19052,16 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E10" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -19027,16 +19078,16 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E11" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -19053,16 +19104,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E12" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>207</v>
+        <v>357</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -19079,16 +19130,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -19105,16 +19156,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -19131,16 +19182,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E15" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -19157,16 +19208,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E16" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F16" t="s">
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -19183,16 +19234,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E17" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -19209,16 +19260,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E18" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -19235,16 +19286,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E19" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -19261,16 +19312,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E20" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -19287,16 +19338,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E21" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -19313,16 +19364,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E22" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -19339,16 +19390,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E23" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H23" t="s">
         <v>36</v>
@@ -19365,16 +19416,16 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E24" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F24" t="s">
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H24" t="s">
         <v>36</v>
@@ -19391,16 +19442,16 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E25" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F25" t="s">
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
@@ -19417,16 +19468,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E26" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H26" t="s">
         <v>36</v>
@@ -19443,16 +19494,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E27" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F27" t="s">
         <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
@@ -19469,16 +19520,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E28" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H28" t="s">
         <v>36</v>
@@ -19495,16 +19546,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E29" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F29" t="s">
         <v>65</v>
       </c>
       <c r="G29" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
@@ -19521,16 +19572,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E30" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H30" t="s">
         <v>36</v>
@@ -19547,16 +19598,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E31" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="H31" t="s">
         <v>36</v>
@@ -19573,16 +19624,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E32" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F32" t="s">
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H32" t="s">
         <v>36</v>
